--- a/textToOps/data/processed/paraphrased_train.xlsx
+++ b/textToOps/data/processed/paraphrased_train.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W247"/>
+  <dimension ref="A1:W240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -550,11 +550,11 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>what areas are within 20 minutes driving time from flower stores in oleander</t>
+          <t>how many buildings are within 3 minutes of driving time from fire stations in oleander</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -566,7 +566,7 @@
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr">
         <is>
-          <t>shop=florist</t>
+          <t>building=*, highway=*</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -621,21 +621,25 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>125</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>what are the areas within a four-minute drive of each fire station at 2 a.m. on tuesday in utrecht</t>
+          <t>which houses are within 2 minutes driving time from fire stations  (from my current location) in oleander</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Utrecht</t>
+          <t>Oleander</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>amenity=fire_station</t>
+        </is>
+      </c>
       <c r="H3" t="inlineStr">
         <is>
           <t>done</t>
@@ -648,7 +652,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>network analysis</t>
+          <t>Network analysis</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -763,23 +767,23 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>what areas are within 60 minutes of airports in crook, deschutes, and jefferson county</t>
+          <t>what areas are within 20 minutes driving time from flower stores in oleander</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Crook, Deschutes, Jefferson county</t>
+          <t>Oleander</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> aeroway=*</t>
+          <t>shop=florist</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -834,25 +838,21 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>how many buildings are within 3 minutes of driving time from fire stations in oleander</t>
+          <t>what are the areas within a four-minute drive of each fire station at 2 a.m. on tuesday in utrecht</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Oleander</t>
+          <t>Utrecht</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>building=*, highway=*</t>
-        </is>
-      </c>
+      <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr">
         <is>
           <t>done</t>
@@ -865,7 +865,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Network analysis</t>
+          <t>network analysis</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -905,11 +905,11 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>which shops are open at 6 pm in happy valley ski resort</t>
+          <t>where are forestry lands in happy valley ski resort</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -921,7 +921,7 @@
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr">
         <is>
-          <t>opening_hours=*</t>
+          <t>Tag:landuse=forestry</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -960,23 +960,23 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>94</v>
+        <v>127</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>what is the land use in netherlands</t>
+          <t>which houses have construction year between 1990 and 2000 in utrecht</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Utrecht</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr">
         <is>
-          <t>landuse=*</t>
+          <t>year_of_construction=*</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -1015,23 +1015,23 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>20</v>
+        <v>94</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>what areas are not park in houston</t>
+          <t>what is the land use in netherlands</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Houston</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr">
         <is>
-          <t>leisure=park</t>
+          <t>landuse=*</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -1070,25 +1070,21 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>where are forestry lands in happy valley ski resort</t>
+          <t>what is the land use in the happy valley resort</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Happy Valley ski resort</t>
+          <t>the Happy Valley resort</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>Tag:landuse=forestry</t>
-        </is>
-      </c>
+      <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr">
         <is>
           <t>done</t>
@@ -1125,23 +1121,23 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>134</v>
+        <v>1</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>which visitor facilities are in the happy valley</t>
+          <t>how many luxury hotels are in happy valley ski resort</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>the Happy Valley</t>
+          <t>Happy Valley ski resort</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr">
         <is>
-          <t>information=visitor_centre</t>
+          <t>tourism=hotel, stars=*</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -1180,23 +1176,23 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>21</v>
+        <v>134</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>what areas are not wetlands in houston</t>
+          <t>which visitor facilities are in the happy valley</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Houston</t>
+          <t>the Happy Valley</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr">
         <is>
-          <t>natural=wetland</t>
+          <t>information=visitor_centre</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -1235,21 +1231,25 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>95</v>
+        <v>21</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>what is the land use in the happy valley resort</t>
+          <t>what areas are not wetlands in houston</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>the Happy Valley resort</t>
+          <t>Houston</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>natural=wetland</t>
+        </is>
+      </c>
       <c r="H13" t="inlineStr">
         <is>
           <t>done</t>
@@ -1286,21 +1286,25 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>7</v>
+        <v>128</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>what are the land use inside the flood zones in oleander</t>
+          <t>which land use contains meteorological stations in netherlands</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Oleander</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> man_made=monitoring_station</t>
+        </is>
+      </c>
       <c r="H14" t="inlineStr">
         <is>
           <t>done</t>
@@ -1345,25 +1349,21 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>how many streetlights for each district in san diego</t>
+          <t>what are the land use inside the flood zones in oleander</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>San Diego</t>
+          <t>Oleander</t>
         </is>
       </c>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>highway=street_lamp</t>
-        </is>
-      </c>
+      <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr">
         <is>
           <t>done</t>
@@ -1408,23 +1408,23 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>68</v>
+        <v>2</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>what houses are for sale in urban areas in utrecht</t>
+          <t>how many streetlights for each district in san diego</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Utrecht</t>
+          <t>San Diego</t>
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr">
         <is>
-          <t>boundary=urban, building=house</t>
+          <t>highway=street_lamp</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1743,23 +1743,23 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>which park is biggest in utrecht</t>
+          <t>where are the rocky areas in spain</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Utrecht</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr">
         <is>
-          <t>leisure=park</t>
+          <t>nature : bare_rock</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1806,27 +1806,23 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>where are the hispanic food stores in tarrant county</t>
+          <t>where are the luxury hotels with more than 20 bedrooms in happy valley ski resort</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Tarrant County</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Texas</t>
-        </is>
-      </c>
+          <t>Happy Valley ski resort</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr">
         <is>
-          <t>cuisine=latin_american</t>
+          <t>beds=*, tourism=hotel</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1873,23 +1869,23 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>111</v>
+        <v>130</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>where are not conservation areas in uk</t>
+          <t>which park is biggest in utrecht</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>Utrecht</t>
         </is>
       </c>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr">
         <is>
-          <t>landuse=conservation</t>
+          <t>leisure=park</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -2058,23 +2054,27 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>where are the industrial areas in utrecht</t>
+          <t>where are the hispanic food stores in tarrant county</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Utrecht</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr"/>
+          <t>Tarrant County</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Texas</t>
+        </is>
+      </c>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr">
         <is>
-          <t>landuse=industrial</t>
+          <t>cuisine=latin_american</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -2121,23 +2121,23 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>11</v>
+        <v>122</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>what are the vegetation areas larger than 6000 square meters in the cape peninsula</t>
+          <t>where are the ski pistes in happy valley ski resort</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>the Cape Peninsula</t>
+          <t>Happy Valley ski resort</t>
         </is>
       </c>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr">
         <is>
-          <t xml:space="preserve">nature : glacier, landuse =forest, wetland=mangrove </t>
+          <t>site=piste</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -2247,27 +2247,23 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>112</v>
+        <v>11</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t xml:space="preserve">where are not protected region in assam </t>
+          <t>what are the vegetation areas larger than 6000 square meters in the cape peninsula</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Assam</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>India</t>
-        </is>
-      </c>
+          <t>the Cape Peninsula</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr">
         <is>
-          <t>landuse=conservation</t>
+          <t xml:space="preserve">nature : glacier, landuse =forest, wetland=mangrove </t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -2314,23 +2310,27 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>where are the luxury hotels with more than 20 bedrooms in happy valley ski resort</t>
+          <t xml:space="preserve">where are not protected region in assam </t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Happy Valley ski resort</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr"/>
+          <t>Assam</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr">
         <is>
-          <t>beds=*, tourism=hotel</t>
+          <t>landuse=conservation</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -2377,16 +2377,16 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>what is the area of currently mixed use zones in gresham</t>
+          <t>what are the vote totals of an election for each precinct in dallas</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Gresham</t>
+          <t>Dallas</t>
         </is>
       </c>
       <c r="E31" t="inlineStr"/>
@@ -2432,21 +2432,25 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>96</v>
+        <v>124</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>what is the literacy rate for each country in africa</t>
+          <t>which houses are for sale in utrecht</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Africa</t>
+          <t>Utrecht</t>
         </is>
       </c>
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr"/>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>building=house</t>
+        </is>
+      </c>
       <c r="H32" t="inlineStr">
         <is>
           <t>done</t>
@@ -2487,25 +2491,25 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>124</v>
+        <v>78</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>which houses are for sale in utrecht</t>
+          <t>what is the cervix cancer mortality rate of white females for each city in the western usa from 1970 to 1994</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Utrecht</t>
+          <t xml:space="preserve">the Western USA </t>
         </is>
       </c>
       <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr"/>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>building=house</t>
-        </is>
-      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>from 1970 to 1994</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr">
         <is>
           <t>done</t>
@@ -2513,7 +2517,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>data editing</t>
+          <t>Data editing</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -2546,24 +2550,20 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>what is the lung cancer mortality rate of white males for each city in the western usa from 1970 to 1994</t>
+          <t>what is the literacy rate for each country in africa</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>the Western USA</t>
+          <t>Africa</t>
         </is>
       </c>
       <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> from 1970 to 1994</t>
-        </is>
-      </c>
+      <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr">
         <is>
@@ -2605,16 +2605,16 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>what are the vote totals of an election for each precinct in dallas</t>
+          <t>what is the area of currently mixed use zones in gresham</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Dallas</t>
+          <t>Gresham</t>
         </is>
       </c>
       <c r="E35" t="inlineStr"/>
@@ -2660,23 +2660,23 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>what areas are within a quarter mile of a store in gresham</t>
+          <t>what areas are outside 150 meters from schools in houston</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Gresham</t>
+          <t>Houston</t>
         </is>
       </c>
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr">
         <is>
-          <t>shop=*</t>
+          <t>amenity=school</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -2723,23 +2723,23 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>what areas are outside 3000 meters of the rivers in spain</t>
+          <t>what areas are outside 60 meters from water body in houston</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Houston</t>
         </is>
       </c>
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr">
         <is>
-          <t>waterway=river</t>
+          <t>landuse=aquaculture, basin, salt_pond</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -2786,25 +2786,21 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>what areas are within a quarter mile of a restaurant in gresham</t>
+          <t>what areas are more than 5000 meters from the roads in spain</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Gresham</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr"/>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>amenity=restaurant</t>
-        </is>
-      </c>
+      <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr">
         <is>
           <t>done</t>
@@ -2849,23 +2845,23 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>what areas are within 800 meter from major highways in houston</t>
+          <t>what areas are within a quarter mile of a restaurant in gresham</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Houston</t>
+          <t>Gresham</t>
         </is>
       </c>
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr">
         <is>
-          <t>highway=motorway</t>
+          <t>amenity=restaurant</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -2912,11 +2908,11 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>what areas are outside 300 meters from streams in houston</t>
+          <t>what areas are outside 155 meters from nature reserve districts in houston</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -2928,7 +2924,7 @@
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr">
         <is>
-          <t>waterway=stream</t>
+          <t>leisure=nature_reserve</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -2975,23 +2971,23 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>what areas are within 1000 meters of the arcades in oleander</t>
+          <t>what areas are outside 150 meters from hospitals in houston</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Oleander</t>
+          <t>Houston</t>
         </is>
       </c>
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr">
         <is>
-          <t>leisure=amusement_arcade</t>
+          <t>amenity=hospital</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -3038,23 +3034,23 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>what areas are within 500 meters from universities in karbala in iraq</t>
+          <t>what areas are outside 5000 meters of the roads in spain</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Karbala, Iraq</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr">
         <is>
-          <t>amenity=university</t>
+          <t>highway=*</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -3101,23 +3097,23 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>what areas are outside 60 meters from residence in houston</t>
+          <t>what areas are within a quarter mile of a store in gresham</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Houston</t>
+          <t>Gresham</t>
         </is>
       </c>
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr">
         <is>
-          <t>residential=*</t>
+          <t>shop=*</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -3164,27 +3160,23 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>what areas are outside 5 km of water bodies in assam</t>
+          <t>what areas are within 1000 meters of the arcades in oleander</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Assam</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>India</t>
-        </is>
-      </c>
+          <t>Oleander</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr">
         <is>
-          <t>landuse=aquaculture, basin, salt_pond</t>
+          <t>leisure=amusement_arcade</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -3231,23 +3223,27 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>what areas are outside 5000 meters of the roads in spain</t>
+          <t>what areas are outside 5 km of water bodies in assam</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Spain</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr"/>
+          <t>Assam</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr">
         <is>
-          <t>highway=*</t>
+          <t>landuse=aquaculture, basin, salt_pond</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -3294,23 +3290,23 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>what areas are outside 155 meters from nature reserve districts in houston</t>
+          <t>what areas are at least 3000 meters from the rivers in spain</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Houston</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr">
         <is>
-          <t>leisure=nature_reserve</t>
+          <t>waterway=river</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -3357,23 +3353,23 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>what areas are at least 3000 meters from the rivers in spain</t>
+          <t>what areas are outside 60 meters from residence in houston</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Houston</t>
         </is>
       </c>
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr">
         <is>
-          <t>waterway=river</t>
+          <t>residential=*</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -3420,23 +3416,23 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>what areas are within 300 meters of runways in schiphol airport</t>
+          <t>what areas are within 800 meter from major highways in houston</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Schiphol airport</t>
+          <t>Houston</t>
         </is>
       </c>
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr">
         <is>
-          <t>aeroway=runway</t>
+          <t>highway=motorway</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -3483,23 +3479,23 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>what areas are within 100 meters of the hospitals in oleander</t>
+          <t>what areas are within 500 meters from religious places in karbala in iraq</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Oleander</t>
+          <t>Karbala, Iraq</t>
         </is>
       </c>
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr">
         <is>
-          <t>amenity=hospital</t>
+          <t>landuse=religious</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -3546,23 +3542,23 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>what areas are within 2000 meters of the playgrounds in oleander</t>
+          <t>what areas are within 100 meters of cameras in salford</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Oleander</t>
+          <t>Salford</t>
         </is>
       </c>
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr">
         <is>
-          <t>leisure=playground</t>
+          <t>man_made=surveillance, highway=speed_camera</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -3609,23 +3605,23 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>what areas are within 100 meters of cameras in salford</t>
+          <t>what areas are within 1000 meters of the major transport routes in amsterdam</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Salford</t>
+          <t>Amsterdam</t>
         </is>
       </c>
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr">
         <is>
-          <t>man_made=surveillance, highway=speed_camera</t>
+          <t>highway=motorway</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -3672,23 +3668,23 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>what areas are within 1000 meters of the major transport routes in amsterdam</t>
+          <t>what areas are outside 300 meters from streams in houston</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Amsterdam</t>
+          <t>Houston</t>
         </is>
       </c>
       <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr">
         <is>
-          <t>highway=motorway</t>
+          <t>waterway=stream</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -3735,23 +3731,23 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>what areas are within 500 meters from religious places in karbala in iraq</t>
+          <t>what areas are within 100 meters of the hospitals in oleander</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Karbala, Iraq</t>
+          <t>Oleander</t>
         </is>
       </c>
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr">
         <is>
-          <t>landuse=religious</t>
+          <t>amenity=hospital</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -3798,23 +3794,23 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>what areas are within 10 miles of current transmission lines with a voltage greater than 400 in colorado</t>
+          <t>what areas are within 2000 meters of the playgrounds in oleander</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Colorado</t>
+          <t>Oleander</t>
         </is>
       </c>
       <c r="E54" t="inlineStr"/>
       <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr">
         <is>
-          <t>power=line</t>
+          <t>leisure=playground</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -3861,23 +3857,23 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>what areas are outside 250 meters of human settlement in the cape peninsula</t>
+          <t>what areas are within 500 meters from universities in karbala in iraq</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>the Cape Peninsula</t>
+          <t>Karbala, Iraq</t>
         </is>
       </c>
       <c r="E55" t="inlineStr"/>
       <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr">
         <is>
-          <t>residential=*</t>
+          <t>amenity=university</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -3991,23 +3987,23 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>what areas are within a quarter mile of light rail stop in gresham</t>
+          <t>what areas are within 300 meters of runways in schiphol airport</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Gresham</t>
+          <t>Schiphol airport</t>
         </is>
       </c>
       <c r="E57" t="inlineStr"/>
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr">
         <is>
-          <t>railway=tram_stop, light_rail</t>
+          <t>aeroway=runway</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -4054,21 +4050,25 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>what areas are more than 5000 meters from the roads in spain</t>
+          <t>what areas are within 1000 meters of the schools in oleander</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Oleander</t>
         </is>
       </c>
       <c r="E58" t="inlineStr"/>
       <c r="F58" t="inlineStr"/>
-      <c r="G58" t="inlineStr"/>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>amenity=school</t>
+        </is>
+      </c>
       <c r="H58" t="inlineStr">
         <is>
           <t>done</t>
@@ -4113,23 +4113,27 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>what areas are outside 150 meters from schools in houston</t>
+          <t>what area are within 50 km from family physician services in saskatchewan</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Houston</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr"/>
+          <t>Saskatchewan</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
+      </c>
       <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr">
         <is>
-          <t>amenity=school</t>
+          <t>amenity=doctor</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -4176,11 +4180,11 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>what areas are not flood plain in houston</t>
+          <t>what areas are not green belt areas in houston</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -4231,11 +4235,11 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>what areas are not green belt areas in houston</t>
+          <t>what areas are not flood plain in houston</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -4286,11 +4290,11 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>43</v>
+        <v>126</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>what areas are within 3 minutes of driving time from the nearest fire station (from my current location) in oleander</t>
+          <t>which houses are within 3 minutes driving time from the nearest fire station (from my current location) in oleander</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -4300,7 +4304,11 @@
       </c>
       <c r="E62" t="inlineStr"/>
       <c r="F62" t="inlineStr"/>
-      <c r="G62" t="inlineStr"/>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>amenity=fire_station</t>
+        </is>
+      </c>
       <c r="H62" t="inlineStr">
         <is>
           <t>done</t>
@@ -4361,11 +4369,11 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>126</v>
+        <v>43</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>which houses are within 3 minutes driving time from the nearest fire station (from my current location) in oleander</t>
+          <t>what areas are within 3 minutes of driving time from the nearest fire station (from my current location) in oleander</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -4375,11 +4383,7 @@
       </c>
       <c r="E63" t="inlineStr"/>
       <c r="F63" t="inlineStr"/>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>amenity=fire_station</t>
-        </is>
-      </c>
+      <c r="G63" t="inlineStr"/>
       <c r="H63" t="inlineStr">
         <is>
           <t>done</t>
@@ -4440,19 +4444,23 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>what areas are within a quarter mile of planned commercial district in gresham</t>
+          <t>what areas are within two miles of urban landuse in loudoun county in us</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Gresham</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr"/>
+          <t>Loudoun County</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr">
@@ -4503,23 +4511,19 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>what areas are within two miles of urban landuse in loudoun county in us</t>
+          <t>what areas are within a quarter mile of planned commercial district in gresham</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Loudoun County</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
+          <t>Gresham</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr"/>
       <c r="F65" t="inlineStr"/>
       <c r="G65" t="inlineStr"/>
       <c r="H65" t="inlineStr">
@@ -4570,11 +4574,11 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>what areas have an aspect larger than 45 degree and smaller than 135 degrees in the cape peninsula</t>
+          <t>what areas have slope larger than 15 percent and smaller than 60 percent in the cape peninsula</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -4704,16 +4708,16 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>what areas have slope larger than 15 percent and smaller than 60 percent in the cape peninsula</t>
+          <t>what areas do have altitude between 700 and 2000 meters in spain</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>the Cape Peninsula</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="E68" t="inlineStr"/>
@@ -4771,25 +4775,21 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>what areas do have temperature in celsius larger than 0 degrees in spain</t>
+          <t>what areas have an annual rainfall of more than 1000 millimeters in the cape peninsula</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>the Cape Peninsula</t>
         </is>
       </c>
       <c r="E69" t="inlineStr"/>
       <c r="F69" t="inlineStr"/>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>monitoring:weather=yes</t>
-        </is>
-      </c>
+      <c r="G69" t="inlineStr"/>
       <c r="H69" t="inlineStr">
         <is>
           <t>done</t>
@@ -4842,21 +4842,25 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>what areas have an annual rainfall of more than 1000 millimeters in the cape peninsula</t>
+          <t>what areas do have temperature in celsius larger than 0 degrees in spain</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>the Cape Peninsula</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="E70" t="inlineStr"/>
       <c r="F70" t="inlineStr"/>
-      <c r="G70" t="inlineStr"/>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>monitoring:weather=yes</t>
+        </is>
+      </c>
       <c r="H70" t="inlineStr">
         <is>
           <t>done</t>
@@ -4909,23 +4913,23 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>107</v>
+        <v>64</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>what liquor stores are within 1000 foot of parks in el cajon</t>
+          <t>what houses are for sale and within 0.5km from the main roads in utrecht</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>El Cajon</t>
+          <t>Utrecht</t>
         </is>
       </c>
       <c r="E71" t="inlineStr"/>
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr">
         <is>
-          <t>shop=alcohol, leisure=park</t>
+          <t>highway=motorway, building=house</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -4940,7 +4944,7 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>buffer</t>
+          <t>Buffer</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
@@ -4976,11 +4980,11 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>what liquor stores are within 1000 foot of schools in el cajon</t>
+          <t>what liquor stores are within 1000 foot of schools, libraries, and parks in el cajon</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -4992,7 +4996,7 @@
       <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr">
         <is>
-          <t>shop=alcohol, amenity=school</t>
+          <t>shop=alcohol, amenity=school,  amenity=library,  leisure=park</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -5043,23 +5047,23 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>64</v>
+        <v>106</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>what houses are for sale and within 0.5km from the main roads in utrecht</t>
+          <t>what liquor stores are within 1000 foot of libraries in el cajon</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Utrecht</t>
+          <t>El Cajon</t>
         </is>
       </c>
       <c r="E73" t="inlineStr"/>
       <c r="F73" t="inlineStr"/>
       <c r="G73" t="inlineStr">
         <is>
-          <t>highway=motorway, building=house</t>
+          <t>shop=alcohol, amenity=library</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -5074,7 +5078,7 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>Buffer</t>
+          <t>buffer</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
@@ -5110,23 +5114,23 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>133</v>
+        <v>107</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>which vacant lots are within 1 mile of a freeway in hillsboro</t>
+          <t>what liquor stores are within 1000 foot of parks in el cajon</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Hillsboro</t>
+          <t>El Cajon</t>
         </is>
       </c>
       <c r="E74" t="inlineStr"/>
       <c r="F74" t="inlineStr"/>
       <c r="G74" t="inlineStr">
         <is>
-          <t>abandoned:*=*, highway=motorway</t>
+          <t>shop=alcohol, leisure=park</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -5177,23 +5181,23 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>109</v>
+        <v>67</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>what liquor stores are within 1000 foot of schools, libraries, and parks in el cajon</t>
+          <t>what houses are for sale and within 1km from the parks in utrecht</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>El Cajon</t>
+          <t>Utrecht</t>
         </is>
       </c>
       <c r="E75" t="inlineStr"/>
       <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr">
         <is>
-          <t>shop=alcohol, amenity=school,  amenity=library,  leisure=park</t>
+          <t>leisure=park, building=house</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -5208,7 +5212,7 @@
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>buffer</t>
+          <t>Buffer</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
@@ -5244,23 +5248,23 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>67</v>
+        <v>108</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>what houses are for sale and within 1km from the parks in utrecht</t>
+          <t>what liquor stores are within 1000 foot of schools in el cajon</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Utrecht</t>
+          <t>El Cajon</t>
         </is>
       </c>
       <c r="E76" t="inlineStr"/>
       <c r="F76" t="inlineStr"/>
       <c r="G76" t="inlineStr">
         <is>
-          <t>leisure=park, building=house</t>
+          <t>shop=alcohol, amenity=school</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
@@ -5275,7 +5279,7 @@
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>Buffer</t>
+          <t>buffer</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
@@ -5311,11 +5315,11 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>what houses are for sale and within 1km from the nearest school (from my current location) in utrecht</t>
+          <t>what houses are for sale and within 1km from the nearest supermarket (from my current location) in utrecht</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -5327,7 +5331,7 @@
       <c r="F77" t="inlineStr"/>
       <c r="G77" t="inlineStr">
         <is>
-          <t>amenity=school, building=house</t>
+          <t>shop=*, building=house</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -5382,11 +5386,11 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>what houses are for sale and within 1km from the nearest supermarket (from my current location) in utrecht</t>
+          <t>what houses are for sale and within 1km from the nearest school (from my current location) in utrecht</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -5398,7 +5402,7 @@
       <c r="F78" t="inlineStr"/>
       <c r="G78" t="inlineStr">
         <is>
-          <t>shop=*, building=house</t>
+          <t>amenity=school, building=house</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -5453,11 +5457,11 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>what is the median people age for each census tract in tarrant county</t>
+          <t>what is the median household income for each census block in tarrant county</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -5520,23 +5524,19 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>104</v>
+        <v>73</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>what is the median household income for each census block in tarrant county</t>
+          <t>what is the average rating of street pavement for each borough in new york city</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Tarrant County</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Texas</t>
-        </is>
-      </c>
+          <t>New York City</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr"/>
       <c r="F80" t="inlineStr"/>
       <c r="G80" t="inlineStr"/>
       <c r="H80" t="inlineStr">
@@ -5546,7 +5546,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>data editing</t>
+          <t>Data editing</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -5556,7 +5556,7 @@
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>data editing</t>
+          <t>Data editing</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
@@ -5713,25 +5713,25 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>what is the density surface of rainfall measurements in the netherlands</t>
+          <t>what is the kernel density of crime in surrey in uk</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>the Netherlands</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr"/>
+          <t>Surrey</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
       <c r="F83" t="inlineStr"/>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> man_made=monitoring_station</t>
-        </is>
-      </c>
+      <c r="G83" t="inlineStr"/>
       <c r="H83" t="inlineStr">
         <is>
           <t>done</t>
@@ -5772,25 +5772,21 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>what is the euclidean distance to hospitals in oleander</t>
+          <t>what is the euclidean distance to tram stations in amsterdam</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Oleander</t>
+          <t>Amsterdam</t>
         </is>
       </c>
       <c r="E84" t="inlineStr"/>
       <c r="F84" t="inlineStr"/>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>amenity=hospital</t>
-        </is>
-      </c>
+      <c r="G84" t="inlineStr"/>
       <c r="H84" t="inlineStr">
         <is>
           <t>done</t>
@@ -5831,16 +5827,16 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>what is the euclidean distance to green areas in amsterdam</t>
+          <t>what is the mean center of crimes weighted by the severity in fort worth</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Amsterdam</t>
+          <t>Fort Worth</t>
         </is>
       </c>
       <c r="E85" t="inlineStr"/>
@@ -5886,23 +5882,23 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>what is the euclidean distance to schools in utrecht</t>
+          <t>what is the euclidean distance to hospitals in oleander</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Utrecht</t>
+          <t>Oleander</t>
         </is>
       </c>
       <c r="E86" t="inlineStr"/>
       <c r="F86" t="inlineStr"/>
       <c r="G86" t="inlineStr">
         <is>
-          <t>amenity=school</t>
+          <t>amenity=hospital</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
@@ -5945,25 +5941,25 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>what is the kernel density of crime in surrey in uk</t>
+          <t>what is the euclidean distance to schools in utrecht</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Surrey</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>UK</t>
-        </is>
-      </c>
+          <t>Utrecht</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr"/>
       <c r="F87" t="inlineStr"/>
-      <c r="G87" t="inlineStr"/>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>amenity=school</t>
+        </is>
+      </c>
       <c r="H87" t="inlineStr">
         <is>
           <t>done</t>
@@ -6004,16 +6000,16 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>what is the euclidean distance to the rivers in crook, deschutes, and jefferson county</t>
+          <t>what is the euclidean distance to subway stations in amsterdam</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Crook, Deschutes, Jefferson county</t>
+          <t>Amsterdam</t>
         </is>
       </c>
       <c r="E88" t="inlineStr"/>
@@ -6118,21 +6114,25 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>what is the mean center of crimes weighted by the severity in fort worth</t>
+          <t>what is the euclidean distance to recreational sites in utrecht</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Fort Worth</t>
+          <t>Utrecht</t>
         </is>
       </c>
       <c r="E90" t="inlineStr"/>
       <c r="F90" t="inlineStr"/>
-      <c r="G90" t="inlineStr"/>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>landuse=recreation_ground</t>
+        </is>
+      </c>
       <c r="H90" t="inlineStr">
         <is>
           <t>done</t>
@@ -6173,21 +6173,25 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>what is the euclidean distance to tram stations in amsterdam</t>
+          <t>what is the density surface of rainfall measurements in the netherlands</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Amsterdam</t>
+          <t>the Netherlands</t>
         </is>
       </c>
       <c r="E91" t="inlineStr"/>
       <c r="F91" t="inlineStr"/>
-      <c r="G91" t="inlineStr"/>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> man_made=monitoring_station</t>
+        </is>
+      </c>
       <c r="H91" t="inlineStr">
         <is>
           <t>done</t>
@@ -6228,25 +6232,21 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>what is the density surface of temperature measurements in oleander city</t>
+          <t>what is the euclidean distance to green areas in amsterdam</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Oleander city</t>
+          <t>Amsterdam</t>
         </is>
       </c>
       <c r="E92" t="inlineStr"/>
       <c r="F92" t="inlineStr"/>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> man_made=monitoring_station</t>
-        </is>
-      </c>
+      <c r="G92" t="inlineStr"/>
       <c r="H92" t="inlineStr">
         <is>
           <t>done</t>
@@ -6287,20 +6287,24 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>what is the mean center of library patrons for each district in oleander</t>
+          <t>what is the mean center of the fire calls for each alarm territory in fort worth in 2017</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Oleander</t>
+          <t>Fort Worth</t>
         </is>
       </c>
       <c r="E93" t="inlineStr"/>
-      <c r="F93" t="inlineStr"/>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
       <c r="G93" t="inlineStr"/>
       <c r="H93" t="inlineStr">
         <is>
@@ -6346,24 +6350,20 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>what is the mean center of the fire calls for each alarm territory in fort worth in 2017</t>
+          <t>what is the mean center of library patrons for each district in oleander</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Fort Worth</t>
+          <t>Oleander</t>
         </is>
       </c>
       <c r="E94" t="inlineStr"/>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
-      </c>
+      <c r="F94" t="inlineStr"/>
       <c r="G94" t="inlineStr"/>
       <c r="H94" t="inlineStr">
         <is>
@@ -6409,11 +6409,11 @@
         <v>94</v>
       </c>
       <c r="B95" t="n">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>which areas are within 20 minutes driving time from flower shops in oleander?</t>
+          <t>how many buildings are within 3 minutes of driving time from the fire station in oleander?</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -6425,7 +6425,7 @@
       <c r="F95" t="inlineStr"/>
       <c r="G95" t="inlineStr">
         <is>
-          <t>shop=florist</t>
+          <t>building=*, highway=*</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
@@ -6480,11 +6480,11 @@
         <v>95</v>
       </c>
       <c r="B96" t="n">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>which areas are within 20 minutes driving time from flower stores in oleander?</t>
+          <t>how many buildings are within 3 minutes of driving time from the fire stations in oleander?</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -6496,7 +6496,7 @@
       <c r="F96" t="inlineStr"/>
       <c r="G96" t="inlineStr">
         <is>
-          <t>shop=florist</t>
+          <t>building=*, highway=*</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
@@ -6548,30 +6548,26 @@
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B97" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>which areas are within 15 minutes walk of a metro station in kochi?</t>
+          <t>how many buildings are within 3 minutes of driving time from fire stations in oleander?</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Kochi</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>India</t>
-        </is>
-      </c>
+          <t>Oleander</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr"/>
       <c r="F97" t="inlineStr"/>
       <c r="G97" t="inlineStr">
         <is>
-          <t>highway=*,railway=station,station=subway</t>
+          <t>building=*, highway=*</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
@@ -6623,30 +6619,26 @@
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B98" t="n">
-        <v>40</v>
+        <v>125</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>which areas are within 15 minutes walking distance of a metro station in kochi?</t>
+          <t>which houses are within 2 minutes of the fire stations from my current location in oleander?</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Kochi</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>India</t>
-        </is>
-      </c>
+          <t>Oleander</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr"/>
       <c r="F98" t="inlineStr"/>
       <c r="G98" t="inlineStr">
         <is>
-          <t>highway=*,railway=station,station=subway</t>
+          <t>amenity=fire_station</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
@@ -6705,7 +6697,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>what areas are within 15 minutes walking distance of a metro station in kochi?</t>
+          <t>which areas are within 15 minutes walk of a metro station in kochi?</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -6780,7 +6772,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>which areas are within 15 minutes walking distance of a metro train station in kochi?</t>
+          <t>which areas are within 15 minutes walking distance of a metro station in kochi?</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -6848,26 +6840,30 @@
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B101" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>how many buildings are within 3 minutes of driving time from the fire station in oleander?</t>
+          <t>what areas are within 15 minutes walking distance of a metro station in kochi?</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Oleander</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr"/>
+          <t>Kochi</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
       <c r="F101" t="inlineStr"/>
       <c r="G101" t="inlineStr">
         <is>
-          <t>building=*, highway=*</t>
+          <t>highway=*,railway=station,station=subway</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
@@ -6919,26 +6915,30 @@
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B102" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>how many buildings are within 3 minutes of driving time from the fire stations in oleander?</t>
+          <t>which areas are within 15 minutes walking distance of a metro train station in kochi?</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Oleander</t>
-        </is>
-      </c>
-      <c r="E102" t="inlineStr"/>
+          <t>Kochi</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
       <c r="F102" t="inlineStr"/>
       <c r="G102" t="inlineStr">
         <is>
-          <t>building=*, highway=*</t>
+          <t>highway=*,railway=station,station=subway</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
@@ -6990,14 +6990,14 @@
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B103" t="n">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>how many buildings are within 3 minutes of driving time from fire stations in oleander?</t>
+          <t>which areas are within 20 minutes driving time from flower shops in oleander?</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -7009,7 +7009,7 @@
       <c r="F103" t="inlineStr"/>
       <c r="G103" t="inlineStr">
         <is>
-          <t>building=*, highway=*</t>
+          <t>shop=florist</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
@@ -7061,26 +7061,26 @@
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B104" t="n">
-        <v>132</v>
+        <v>41</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>which shops are open at 6 pm at happy valley ski resort?</t>
+          <t>which areas are within 20 minutes driving time from flower stores in oleander?</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Happy Valley ski resort</t>
+          <t>Oleander</t>
         </is>
       </c>
       <c r="E104" t="inlineStr"/>
       <c r="F104" t="inlineStr"/>
       <c r="G104" t="inlineStr">
         <is>
-          <t>opening_hours=*</t>
+          <t>shop=florist</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
@@ -7093,10 +7093,26 @@
           <t>Data queries</t>
         </is>
       </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="inlineStr"/>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>Network analysis</t>
+        </is>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
       <c r="N104" t="inlineStr"/>
       <c r="O104" t="inlineStr"/>
       <c r="P104" t="inlineStr"/>
@@ -7107,11 +7123,11 @@
       <c r="U104" t="inlineStr"/>
       <c r="V104" t="inlineStr">
         <is>
-          <t>data queries</t>
+          <t>data queries,network analysis,classification,data queries,overlay analysis</t>
         </is>
       </c>
       <c r="W104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105">
@@ -7119,23 +7135,23 @@
         <v>110</v>
       </c>
       <c r="B105" t="n">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>which shops are open at 6 pm in happy valley ski resort?</t>
+          <t>which houses in utrecht have a construction year between 1990 and 2000</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Happy Valley ski resort</t>
+          <t>Utrecht</t>
         </is>
       </c>
       <c r="E105" t="inlineStr"/>
       <c r="F105" t="inlineStr"/>
       <c r="G105" t="inlineStr">
         <is>
-          <t>opening_hours=*</t>
+          <t>year_of_construction=*</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
@@ -7171,26 +7187,26 @@
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B106" t="n">
-        <v>20</v>
+        <v>134</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>what areas in houston are not parks?</t>
+          <t>what visitor facilities are in happy valley?</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Houston</t>
+          <t>the Happy Valley</t>
         </is>
       </c>
       <c r="E106" t="inlineStr"/>
       <c r="F106" t="inlineStr"/>
       <c r="G106" t="inlineStr">
         <is>
-          <t>leisure=park</t>
+          <t>information=visitor_centre</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
@@ -7226,26 +7242,26 @@
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B107" t="n">
-        <v>20</v>
+        <v>134</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>which areas are not parks in houston?</t>
+          <t>which visitor facilities are in happy valley?</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Houston</t>
+          <t>the Happy Valley</t>
         </is>
       </c>
       <c r="E107" t="inlineStr"/>
       <c r="F107" t="inlineStr"/>
       <c r="G107" t="inlineStr">
         <is>
-          <t>leisure=park</t>
+          <t>information=visitor_centre</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
@@ -7281,26 +7297,26 @@
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B108" t="n">
-        <v>134</v>
+        <v>21</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>what visitor facilities are in happy valley?</t>
+          <t>what areas in houston are not wetlands?</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>the Happy Valley</t>
+          <t>Houston</t>
         </is>
       </c>
       <c r="E108" t="inlineStr"/>
       <c r="F108" t="inlineStr"/>
       <c r="G108" t="inlineStr">
         <is>
-          <t>information=visitor_centre</t>
+          <t>natural=wetland</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
@@ -7336,26 +7352,26 @@
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B109" t="n">
-        <v>134</v>
+        <v>21</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>which visitor facilities are in happy valley?</t>
+          <t>which areas are not wetlands in houston?</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>the Happy Valley</t>
+          <t>Houston</t>
         </is>
       </c>
       <c r="E109" t="inlineStr"/>
       <c r="F109" t="inlineStr"/>
       <c r="G109" t="inlineStr">
         <is>
-          <t>information=visitor_centre</t>
+          <t>natural=wetland</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
@@ -7391,14 +7407,14 @@
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B110" t="n">
         <v>21</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>what areas in houston are not wetlands?</t>
+          <t>what areas are not wetlands in houston?</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -7446,28 +7462,24 @@
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B111" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>which areas are not wetlands in houston?</t>
+          <t>tell me the use of land in the flood zones in oleander?</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Houston</t>
+          <t>Oleander</t>
         </is>
       </c>
       <c r="E111" t="inlineStr"/>
       <c r="F111" t="inlineStr"/>
-      <c r="G111" t="inlineStr">
-        <is>
-          <t>natural=wetland</t>
-        </is>
-      </c>
+      <c r="G111" t="inlineStr"/>
       <c r="H111" t="inlineStr">
         <is>
           <t>done</t>
@@ -7478,8 +7490,16 @@
           <t>Data queries</t>
         </is>
       </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
       <c r="L111" t="inlineStr"/>
       <c r="M111" t="inlineStr"/>
       <c r="N111" t="inlineStr"/>
@@ -7492,35 +7512,35 @@
       <c r="U111" t="inlineStr"/>
       <c r="V111" t="inlineStr">
         <is>
-          <t>data queries</t>
+          <t>data queries,overlay analysis,data queries</t>
         </is>
       </c>
       <c r="W111" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B112" t="n">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>what areas are not wetlands in houston?</t>
+          <t>how many streetlights in each district in san diego?</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Houston</t>
+          <t>San Diego</t>
         </is>
       </c>
       <c r="E112" t="inlineStr"/>
       <c r="F112" t="inlineStr"/>
       <c r="G112" t="inlineStr">
         <is>
-          <t>natural=wetland</t>
+          <t>highway=street_lamp</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
@@ -7533,8 +7553,16 @@
           <t>Data queries</t>
         </is>
       </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
       <c r="L112" t="inlineStr"/>
       <c r="M112" t="inlineStr"/>
       <c r="N112" t="inlineStr"/>
@@ -7547,33 +7575,37 @@
       <c r="U112" t="inlineStr"/>
       <c r="V112" t="inlineStr">
         <is>
-          <t>data queries</t>
+          <t>data queries,overlay analysis,data queries</t>
         </is>
       </c>
       <c r="W112" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="B113" t="n">
-        <v>7</v>
+        <v>131</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>tell me the use of land in the flood zones in oleander?</t>
+          <t>which schools are not within three minutes of driving time from a fire station in fort worth?</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Oleander</t>
+          <t>Fort Worth</t>
         </is>
       </c>
       <c r="E113" t="inlineStr"/>
       <c r="F113" t="inlineStr"/>
-      <c r="G113" t="inlineStr"/>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>amenity=fire_station, amenity=school</t>
+        </is>
+      </c>
       <c r="H113" t="inlineStr">
         <is>
           <t>done</t>
@@ -7586,17 +7618,29 @@
       </c>
       <c r="J113" t="inlineStr">
         <is>
+          <t>Network analysis</t>
+        </is>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="M113" t="inlineStr">
+        <is>
           <t>Overlay analysis</t>
         </is>
       </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="inlineStr"/>
-      <c r="N113" t="inlineStr"/>
+      <c r="N113" t="inlineStr">
+        <is>
+          <t>data queries</t>
+        </is>
+      </c>
       <c r="O113" t="inlineStr"/>
       <c r="P113" t="inlineStr"/>
       <c r="Q113" t="inlineStr"/>
@@ -7606,35 +7650,35 @@
       <c r="U113" t="inlineStr"/>
       <c r="V113" t="inlineStr">
         <is>
-          <t>data queries,overlay analysis,data queries</t>
+          <t>data queries,network analysis,classification,data queries,overlay analysis,data queries</t>
         </is>
       </c>
       <c r="W113" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B114" t="n">
-        <v>2</v>
+        <v>131</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>how many streetlights in each district in san diego?</t>
+          <t>which schools are not within 3 minutes of driving time of a fire station in fort worth?</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>San Diego</t>
+          <t>Fort Worth</t>
         </is>
       </c>
       <c r="E114" t="inlineStr"/>
       <c r="F114" t="inlineStr"/>
       <c r="G114" t="inlineStr">
         <is>
-          <t>highway=street_lamp</t>
+          <t>amenity=fire_station, amenity=school</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
@@ -7649,17 +7693,29 @@
       </c>
       <c r="J114" t="inlineStr">
         <is>
+          <t>Network analysis</t>
+        </is>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="M114" t="inlineStr">
+        <is>
           <t>Overlay analysis</t>
         </is>
       </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="inlineStr"/>
-      <c r="N114" t="inlineStr"/>
+      <c r="N114" t="inlineStr">
+        <is>
+          <t>data queries</t>
+        </is>
+      </c>
       <c r="O114" t="inlineStr"/>
       <c r="P114" t="inlineStr"/>
       <c r="Q114" t="inlineStr"/>
@@ -7669,35 +7725,35 @@
       <c r="U114" t="inlineStr"/>
       <c r="V114" t="inlineStr">
         <is>
-          <t>data queries,overlay analysis,data queries</t>
+          <t>data queries,network analysis,classification,data queries,overlay analysis,data queries</t>
         </is>
       </c>
       <c r="W114" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="B115" t="n">
-        <v>68</v>
+        <v>121</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>what houses are for sale in utrecht's urban areas</t>
+          <t>where are rocky areas in spain?</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Utrecht</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="E115" t="inlineStr"/>
       <c r="F115" t="inlineStr"/>
       <c r="G115" t="inlineStr">
         <is>
-          <t>boundary=urban, building=house</t>
+          <t>nature : bare_rock</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
@@ -7712,7 +7768,7 @@
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>Overlay analysis</t>
+          <t>Geometry measurement</t>
         </is>
       </c>
       <c r="K115" t="inlineStr">
@@ -7732,35 +7788,35 @@
       <c r="U115" t="inlineStr"/>
       <c r="V115" t="inlineStr">
         <is>
-          <t>data queries,overlay analysis,data queries</t>
+          <t>data queries,geometry measurement,data queries</t>
         </is>
       </c>
       <c r="W115" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="B116" t="n">
-        <v>68</v>
+        <v>121</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>which houses are for sale in utrecht urban areas?</t>
+          <t>where are the rocky areas of spain</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Utrecht</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="E116" t="inlineStr"/>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr">
         <is>
-          <t>boundary=urban, building=house</t>
+          <t>nature : bare_rock</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
@@ -7775,7 +7831,7 @@
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>Overlay analysis</t>
+          <t>Geometry measurement</t>
         </is>
       </c>
       <c r="K116" t="inlineStr">
@@ -7795,35 +7851,35 @@
       <c r="U116" t="inlineStr"/>
       <c r="V116" t="inlineStr">
         <is>
-          <t>data queries,overlay analysis,data queries</t>
+          <t>data queries,geometry measurement,data queries</t>
         </is>
       </c>
       <c r="W116" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="B117" t="n">
-        <v>68</v>
+        <v>120</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>which houses are for sale in urban areas in utrecht?</t>
+          <t>where are the luxury hotels with more than 20 rooms in the happy valley ski resort</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Utrecht</t>
+          <t>Happy Valley ski resort</t>
         </is>
       </c>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr">
         <is>
-          <t>boundary=urban, building=house</t>
+          <t>beds=*, tourism=hotel</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
@@ -7838,7 +7894,7 @@
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>Overlay analysis</t>
+          <t>Geometry measurement</t>
         </is>
       </c>
       <c r="K117" t="inlineStr">
@@ -7858,35 +7914,35 @@
       <c r="U117" t="inlineStr"/>
       <c r="V117" t="inlineStr">
         <is>
-          <t>data queries,overlay analysis,data queries</t>
+          <t>data queries,geometry measurement,data queries</t>
         </is>
       </c>
       <c r="W117" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="B118" t="n">
-        <v>68</v>
+        <v>120</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>which houses are for sale in urban areas in utrecht</t>
+          <t>where are the luxury hotels with more than 20 bedrooms in the happy valley ski resort</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Utrecht</t>
+          <t>Happy Valley ski resort</t>
         </is>
       </c>
       <c r="E118" t="inlineStr"/>
       <c r="F118" t="inlineStr"/>
       <c r="G118" t="inlineStr">
         <is>
-          <t>boundary=urban, building=house</t>
+          <t>beds=*, tourism=hotel</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
@@ -7901,7 +7957,7 @@
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>Overlay analysis</t>
+          <t>Geometry measurement</t>
         </is>
       </c>
       <c r="K118" t="inlineStr">
@@ -7921,35 +7977,35 @@
       <c r="U118" t="inlineStr"/>
       <c r="V118" t="inlineStr">
         <is>
-          <t>data queries,overlay analysis,data queries</t>
+          <t>data queries,geometry measurement,data queries</t>
         </is>
       </c>
       <c r="W118" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B119" t="n">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>which schools are not within three minutes of driving time from a fire station in fort worth?</t>
+          <t>where are the luxury hotels with more than 20 rooms in happy valley ski resort</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Fort Worth</t>
+          <t>Happy Valley ski resort</t>
         </is>
       </c>
       <c r="E119" t="inlineStr"/>
       <c r="F119" t="inlineStr"/>
       <c r="G119" t="inlineStr">
         <is>
-          <t>amenity=fire_station, amenity=school</t>
+          <t>beds=*, tourism=hotel</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
@@ -7964,29 +8020,17 @@
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>Network analysis</t>
+          <t>Geometry measurement</t>
         </is>
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>classification</t>
-        </is>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="M119" t="inlineStr">
-        <is>
-          <t>Overlay analysis</t>
-        </is>
-      </c>
-      <c r="N119" t="inlineStr">
-        <is>
-          <t>data queries</t>
-        </is>
-      </c>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="inlineStr"/>
       <c r="O119" t="inlineStr"/>
       <c r="P119" t="inlineStr"/>
       <c r="Q119" t="inlineStr"/>
@@ -7996,35 +8040,35 @@
       <c r="U119" t="inlineStr"/>
       <c r="V119" t="inlineStr">
         <is>
-          <t>data queries,network analysis,classification,data queries,overlay analysis,data queries</t>
+          <t>data queries,geometry measurement,data queries</t>
         </is>
       </c>
       <c r="W119" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B120" t="n">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>which schools are not within 3 minutes of driving time of a fire station in fort worth?</t>
+          <t>where are the luxury hotels with more than 20 bedrooms in happy valley ski resort?</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Fort Worth</t>
+          <t>Happy Valley ski resort</t>
         </is>
       </c>
       <c r="E120" t="inlineStr"/>
       <c r="F120" t="inlineStr"/>
       <c r="G120" t="inlineStr">
         <is>
-          <t>amenity=fire_station, amenity=school</t>
+          <t>beds=*, tourism=hotel</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
@@ -8039,29 +8083,17 @@
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>Network analysis</t>
+          <t>Geometry measurement</t>
         </is>
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>classification</t>
-        </is>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="M120" t="inlineStr">
-        <is>
-          <t>Overlay analysis</t>
-        </is>
-      </c>
-      <c r="N120" t="inlineStr">
-        <is>
-          <t>data queries</t>
-        </is>
-      </c>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="inlineStr"/>
       <c r="O120" t="inlineStr"/>
       <c r="P120" t="inlineStr"/>
       <c r="Q120" t="inlineStr"/>
@@ -8071,16 +8103,16 @@
       <c r="U120" t="inlineStr"/>
       <c r="V120" t="inlineStr">
         <is>
-          <t>data queries,network analysis,classification,data queries,overlay analysis,data queries</t>
+          <t>data queries,geometry measurement,data queries</t>
         </is>
       </c>
       <c r="W120" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B121" t="n">
         <v>130</v>
@@ -8143,7 +8175,7 @@
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B122" t="n">
         <v>130</v>
@@ -8206,7 +8238,7 @@
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B123" t="n">
         <v>130</v>
@@ -8269,7 +8301,7 @@
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B124" t="n">
         <v>130</v>
@@ -8332,7 +8364,7 @@
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B125" t="n">
         <v>116</v>
@@ -8399,7 +8431,7 @@
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B126" t="n">
         <v>116</v>
@@ -8466,26 +8498,26 @@
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B127" t="n">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>where the uk has no conservation areas?</t>
+          <t>where are the ski slopes in happy valley ski resort?</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>Happy Valley ski resort</t>
         </is>
       </c>
       <c r="E127" t="inlineStr"/>
       <c r="F127" t="inlineStr"/>
       <c r="G127" t="inlineStr">
         <is>
-          <t>landuse=conservation</t>
+          <t>site=piste</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
@@ -8529,14 +8561,14 @@
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B128" t="n">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>where are utrecht's industrial areas?</t>
+          <t>where are fire stations in utrecht?</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -8548,7 +8580,7 @@
       <c r="F128" t="inlineStr"/>
       <c r="G128" t="inlineStr">
         <is>
-          <t>landuse=industrial</t>
+          <t>amenity=fire_station</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
@@ -8592,14 +8624,14 @@
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B129" t="n">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>where are the industrial zones in utrecht?</t>
+          <t>where are the fire stations in utrecht?</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -8611,7 +8643,7 @@
       <c r="F129" t="inlineStr"/>
       <c r="G129" t="inlineStr">
         <is>
-          <t>landuse=industrial</t>
+          <t>amenity=fire_station</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
@@ -8655,7 +8687,7 @@
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B130" t="n">
         <v>11</v>
@@ -8718,7 +8750,7 @@
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B131" t="n">
         <v>11</v>
@@ -8781,28 +8813,24 @@
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B132" t="n">
-        <v>114</v>
+        <v>12</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>where are fire stations in utrecht?</t>
+          <t>list the total number of votes in a dallas election?</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Utrecht</t>
+          <t>Dallas</t>
         </is>
       </c>
       <c r="E132" t="inlineStr"/>
       <c r="F132" t="inlineStr"/>
-      <c r="G132" t="inlineStr">
-        <is>
-          <t>amenity=fire_station</t>
-        </is>
-      </c>
+      <c r="G132" t="inlineStr"/>
       <c r="H132" t="inlineStr">
         <is>
           <t>done</t>
@@ -8810,19 +8838,15 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>Data editing</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>Geometry measurement</t>
-        </is>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr"/>
       <c r="M132" t="inlineStr"/>
       <c r="N132" t="inlineStr"/>
@@ -8835,37 +8859,33 @@
       <c r="U132" t="inlineStr"/>
       <c r="V132" t="inlineStr">
         <is>
-          <t>data queries,geometry measurement,data queries</t>
+          <t>data editing,data queries</t>
         </is>
       </c>
       <c r="W132" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B133" t="n">
-        <v>114</v>
+        <v>12</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>where are the fire stations in utrecht?</t>
+          <t>what are the total votes of an election for each precinct in dallas?</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Utrecht</t>
+          <t>Dallas</t>
         </is>
       </c>
       <c r="E133" t="inlineStr"/>
       <c r="F133" t="inlineStr"/>
-      <c r="G133" t="inlineStr">
-        <is>
-          <t>amenity=fire_station</t>
-        </is>
-      </c>
+      <c r="G133" t="inlineStr"/>
       <c r="H133" t="inlineStr">
         <is>
           <t>done</t>
@@ -8873,19 +8893,15 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>Data editing</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>Geometry measurement</t>
-        </is>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr"/>
       <c r="M133" t="inlineStr"/>
       <c r="N133" t="inlineStr"/>
@@ -8898,37 +8914,33 @@
       <c r="U133" t="inlineStr"/>
       <c r="V133" t="inlineStr">
         <is>
-          <t>data queries,geometry measurement,data queries</t>
+          <t>data editing,data queries</t>
         </is>
       </c>
       <c r="W133" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B134" t="n">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>where are the luxury hotels with more than 20 rooms in the happy valley ski resort</t>
+          <t>what are the vote totals of an election for each precinct of dallas?</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Happy Valley ski resort</t>
+          <t>Dallas</t>
         </is>
       </c>
       <c r="E134" t="inlineStr"/>
       <c r="F134" t="inlineStr"/>
-      <c r="G134" t="inlineStr">
-        <is>
-          <t>beds=*, tourism=hotel</t>
-        </is>
-      </c>
+      <c r="G134" t="inlineStr"/>
       <c r="H134" t="inlineStr">
         <is>
           <t>done</t>
@@ -8936,19 +8948,15 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>Data editing</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>Geometry measurement</t>
-        </is>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr"/>
       <c r="M134" t="inlineStr"/>
       <c r="N134" t="inlineStr"/>
@@ -8961,37 +8969,33 @@
       <c r="U134" t="inlineStr"/>
       <c r="V134" t="inlineStr">
         <is>
-          <t>data queries,geometry measurement,data queries</t>
+          <t>data editing,data queries</t>
         </is>
       </c>
       <c r="W134" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B135" t="n">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>where are the luxury hotels with more than 20 bedrooms in the happy valley ski resort</t>
+          <t>what are the votes totals of an election for each precinct in dallas?</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Happy Valley ski resort</t>
+          <t>Dallas</t>
         </is>
       </c>
       <c r="E135" t="inlineStr"/>
       <c r="F135" t="inlineStr"/>
-      <c r="G135" t="inlineStr">
-        <is>
-          <t>beds=*, tourism=hotel</t>
-        </is>
-      </c>
+      <c r="G135" t="inlineStr"/>
       <c r="H135" t="inlineStr">
         <is>
           <t>done</t>
@@ -8999,19 +9003,15 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>Data editing</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>Geometry measurement</t>
-        </is>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr"/>
       <c r="M135" t="inlineStr"/>
       <c r="N135" t="inlineStr"/>
@@ -9024,37 +9024,33 @@
       <c r="U135" t="inlineStr"/>
       <c r="V135" t="inlineStr">
         <is>
-          <t>data queries,geometry measurement,data queries</t>
+          <t>data editing,data queries</t>
         </is>
       </c>
       <c r="W135" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B136" t="n">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>where are the luxury hotels with more than 20 rooms in happy valley ski resort</t>
+          <t>what are the vote totals of an election for each precinct in dallas?</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Happy Valley ski resort</t>
+          <t>Dallas</t>
         </is>
       </c>
       <c r="E136" t="inlineStr"/>
       <c r="F136" t="inlineStr"/>
-      <c r="G136" t="inlineStr">
-        <is>
-          <t>beds=*, tourism=hotel</t>
-        </is>
-      </c>
+      <c r="G136" t="inlineStr"/>
       <c r="H136" t="inlineStr">
         <is>
           <t>done</t>
@@ -9062,19 +9058,15 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>Data editing</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>Geometry measurement</t>
-        </is>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr"/>
       <c r="M136" t="inlineStr"/>
       <c r="N136" t="inlineStr"/>
@@ -9087,35 +9079,35 @@
       <c r="U136" t="inlineStr"/>
       <c r="V136" t="inlineStr">
         <is>
-          <t>data queries,geometry measurement,data queries</t>
+          <t>data editing,data queries</t>
         </is>
       </c>
       <c r="W136" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B137" t="n">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>where are the luxury hotels with more than 20 bedrooms in happy valley ski resort?</t>
+          <t>which houses are available for sale in utrecht?</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Happy Valley ski resort</t>
+          <t>Utrecht</t>
         </is>
       </c>
       <c r="E137" t="inlineStr"/>
       <c r="F137" t="inlineStr"/>
       <c r="G137" t="inlineStr">
         <is>
-          <t>beds=*, tourism=hotel</t>
+          <t>building=house</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
@@ -9125,19 +9117,15 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>data editing</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>Geometry measurement</t>
-        </is>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr"/>
       <c r="M137" t="inlineStr"/>
       <c r="N137" t="inlineStr"/>
@@ -9150,33 +9138,37 @@
       <c r="U137" t="inlineStr"/>
       <c r="V137" t="inlineStr">
         <is>
-          <t>data queries,geometry measurement,data queries</t>
+          <t>data editing,data queries</t>
         </is>
       </c>
       <c r="W137" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B138" t="n">
-        <v>96</v>
+        <v>124</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>how much literacy is in each country in africa?</t>
+          <t>which houses are available in utrecht?</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Africa</t>
+          <t>Utrecht</t>
         </is>
       </c>
       <c r="E138" t="inlineStr"/>
       <c r="F138" t="inlineStr"/>
-      <c r="G138" t="inlineStr"/>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>building=house</t>
+        </is>
+      </c>
       <c r="H138" t="inlineStr">
         <is>
           <t>done</t>
@@ -9214,14 +9206,14 @@
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B139" t="n">
         <v>124</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>which houses are available for sale in utrecht?</t>
+          <t>which houses are to be sold in utrecht?</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -9273,14 +9265,14 @@
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B140" t="n">
         <v>124</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>which houses are available in utrecht?</t>
+          <t>which houses are to be sold in utrecht</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -9332,28 +9324,28 @@
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B141" t="n">
-        <v>124</v>
+        <v>78</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>which houses are to be sold in utrecht?</t>
+          <t>what is the cervix cancer mortality rate of white females for each city in the western usa from 1970 to 1994?</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Utrecht</t>
+          <t xml:space="preserve">the Western USA </t>
         </is>
       </c>
       <c r="E141" t="inlineStr"/>
-      <c r="F141" t="inlineStr"/>
-      <c r="G141" t="inlineStr">
-        <is>
-          <t>building=house</t>
-        </is>
-      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>from 1970 to 1994</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr"/>
       <c r="H141" t="inlineStr">
         <is>
           <t>done</t>
@@ -9361,7 +9353,7 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>data editing</t>
+          <t>Data editing</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -9394,25 +9386,21 @@
         <v>177</v>
       </c>
       <c r="B142" t="n">
-        <v>124</v>
+        <v>96</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>which houses are to be sold in utrecht</t>
+          <t>how much literacy is in each country in africa?</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Utrecht</t>
+          <t>Africa</t>
         </is>
       </c>
       <c r="E142" t="inlineStr"/>
       <c r="F142" t="inlineStr"/>
-      <c r="G142" t="inlineStr">
-        <is>
-          <t>building=house</t>
-        </is>
-      </c>
+      <c r="G142" t="inlineStr"/>
       <c r="H142" t="inlineStr">
         <is>
           <t>done</t>
@@ -9450,28 +9438,28 @@
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="B143" t="n">
-        <v>97</v>
+        <v>50</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>what is the lung cancer mortality rate of white males for each city in the western usa from 1970 to 1994?</t>
+          <t>which areas are within a quarter mile of a restaurant in gresham?</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>the Western USA</t>
+          <t>Gresham</t>
         </is>
       </c>
       <c r="E143" t="inlineStr"/>
-      <c r="F143" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> from 1970 to 1994</t>
-        </is>
-      </c>
-      <c r="G143" t="inlineStr"/>
+      <c r="F143" t="inlineStr"/>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>amenity=restaurant</t>
+        </is>
+      </c>
       <c r="H143" t="inlineStr">
         <is>
           <t>done</t>
@@ -9479,15 +9467,19 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>data editing</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="K143" t="inlineStr"/>
+          <t>Buffer</t>
+        </is>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
       <c r="L143" t="inlineStr"/>
       <c r="M143" t="inlineStr"/>
       <c r="N143" t="inlineStr"/>
@@ -9500,33 +9492,37 @@
       <c r="U143" t="inlineStr"/>
       <c r="V143" t="inlineStr">
         <is>
-          <t>data editing,data queries</t>
+          <t>data queries,buffer,overlay analysis</t>
         </is>
       </c>
       <c r="W143" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="B144" t="n">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>list the total number of votes in a dallas election?</t>
+          <t>what areas are within a quarter mile of a restaurant in gresham?</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Dallas</t>
+          <t>Gresham</t>
         </is>
       </c>
       <c r="E144" t="inlineStr"/>
       <c r="F144" t="inlineStr"/>
-      <c r="G144" t="inlineStr"/>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>amenity=restaurant</t>
+        </is>
+      </c>
       <c r="H144" t="inlineStr">
         <is>
           <t>done</t>
@@ -9534,15 +9530,19 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>Data editing</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="K144" t="inlineStr"/>
+          <t>Buffer</t>
+        </is>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
       <c r="L144" t="inlineStr"/>
       <c r="M144" t="inlineStr"/>
       <c r="N144" t="inlineStr"/>
@@ -9555,33 +9555,37 @@
       <c r="U144" t="inlineStr"/>
       <c r="V144" t="inlineStr">
         <is>
-          <t>data editing,data queries</t>
+          <t>data queries,buffer,overlay analysis</t>
         </is>
       </c>
       <c r="W144" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="B145" t="n">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>what are the total votes of an election for each precinct in dallas?</t>
+          <t>which areas are within a quarter mile of a store in gresham?</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Dallas</t>
+          <t>Gresham</t>
         </is>
       </c>
       <c r="E145" t="inlineStr"/>
       <c r="F145" t="inlineStr"/>
-      <c r="G145" t="inlineStr"/>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>shop=*</t>
+        </is>
+      </c>
       <c r="H145" t="inlineStr">
         <is>
           <t>done</t>
@@ -9589,15 +9593,19 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>Data editing</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="K145" t="inlineStr"/>
+          <t>Buffer</t>
+        </is>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
       <c r="L145" t="inlineStr"/>
       <c r="M145" t="inlineStr"/>
       <c r="N145" t="inlineStr"/>
@@ -9610,33 +9618,37 @@
       <c r="U145" t="inlineStr"/>
       <c r="V145" t="inlineStr">
         <is>
-          <t>data editing,data queries</t>
+          <t>data queries,buffer,overlay analysis</t>
         </is>
       </c>
       <c r="W145" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="B146" t="n">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>what are the vote totals of an election for each precinct of dallas?</t>
+          <t>what areas are within a quarter mile of a store in gresham?</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Dallas</t>
+          <t>Gresham</t>
         </is>
       </c>
       <c r="E146" t="inlineStr"/>
       <c r="F146" t="inlineStr"/>
-      <c r="G146" t="inlineStr"/>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>shop=*</t>
+        </is>
+      </c>
       <c r="H146" t="inlineStr">
         <is>
           <t>done</t>
@@ -9644,15 +9656,19 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>Data editing</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="K146" t="inlineStr"/>
+          <t>Buffer</t>
+        </is>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
       <c r="L146" t="inlineStr"/>
       <c r="M146" t="inlineStr"/>
       <c r="N146" t="inlineStr"/>
@@ -9665,33 +9681,37 @@
       <c r="U146" t="inlineStr"/>
       <c r="V146" t="inlineStr">
         <is>
-          <t>data editing,data queries</t>
+          <t>data queries,buffer,overlay analysis</t>
         </is>
       </c>
       <c r="W146" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="B147" t="n">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>what are the votes totals of an election for each precinct in dallas?</t>
+          <t>tell me the area within 1000 meters of the arcades in oleander?</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Dallas</t>
+          <t>Oleander</t>
         </is>
       </c>
       <c r="E147" t="inlineStr"/>
       <c r="F147" t="inlineStr"/>
-      <c r="G147" t="inlineStr"/>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>leisure=amusement_arcade</t>
+        </is>
+      </c>
       <c r="H147" t="inlineStr">
         <is>
           <t>done</t>
@@ -9699,15 +9719,19 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>Data editing</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="K147" t="inlineStr"/>
+          <t>Buffer</t>
+        </is>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
       <c r="L147" t="inlineStr"/>
       <c r="M147" t="inlineStr"/>
       <c r="N147" t="inlineStr"/>
@@ -9720,33 +9744,37 @@
       <c r="U147" t="inlineStr"/>
       <c r="V147" t="inlineStr">
         <is>
-          <t>data editing,data queries</t>
+          <t>data queries,buffer,overlay analysis</t>
         </is>
       </c>
       <c r="W147" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
-        <v>185</v>
+        <v>199</v>
       </c>
       <c r="B148" t="n">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>what are the vote totals of an election for each precinct in dallas?</t>
+          <t>which areas are within 1000 meters of the arcades in oleander?</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Dallas</t>
+          <t>Oleander</t>
         </is>
       </c>
       <c r="E148" t="inlineStr"/>
       <c r="F148" t="inlineStr"/>
-      <c r="G148" t="inlineStr"/>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>leisure=amusement_arcade</t>
+        </is>
+      </c>
       <c r="H148" t="inlineStr">
         <is>
           <t>done</t>
@@ -9754,15 +9782,19 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>Data editing</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="K148" t="inlineStr"/>
+          <t>Buffer</t>
+        </is>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
       <c r="L148" t="inlineStr"/>
       <c r="M148" t="inlineStr"/>
       <c r="N148" t="inlineStr"/>
@@ -9775,35 +9807,35 @@
       <c r="U148" t="inlineStr"/>
       <c r="V148" t="inlineStr">
         <is>
-          <t>data editing,data queries</t>
+          <t>data queries,buffer,overlay analysis</t>
         </is>
       </c>
       <c r="W148" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="B149" t="n">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>which areas are within a quarter mile of a store in gresham?</t>
+          <t>what areas are within 1000 meters of the arcades in oleander?</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Gresham</t>
+          <t>Oleander</t>
         </is>
       </c>
       <c r="E149" t="inlineStr"/>
       <c r="F149" t="inlineStr"/>
       <c r="G149" t="inlineStr">
         <is>
-          <t>shop=*</t>
+          <t>leisure=amusement_arcade</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
@@ -9847,26 +9879,26 @@
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
-        <v>188</v>
+        <v>208</v>
       </c>
       <c r="B150" t="n">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>what areas are within a quarter mile of a store in gresham?</t>
+          <t>which areas are within 800 meters of major highways in houston?</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Gresham</t>
+          <t>Houston</t>
         </is>
       </c>
       <c r="E150" t="inlineStr"/>
       <c r="F150" t="inlineStr"/>
       <c r="G150" t="inlineStr">
         <is>
-          <t>shop=*</t>
+          <t>highway=motorway</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
@@ -9910,26 +9942,26 @@
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="B151" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>which areas are within a quarter mile of a restaurant in gresham?</t>
+          <t>what areas are within 800 meters of major highways in houston?</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Gresham</t>
+          <t>Houston</t>
         </is>
       </c>
       <c r="E151" t="inlineStr"/>
       <c r="F151" t="inlineStr"/>
       <c r="G151" t="inlineStr">
         <is>
-          <t>amenity=restaurant</t>
+          <t>highway=motorway</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
@@ -9973,26 +10005,26 @@
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
-        <v>193</v>
+        <v>215</v>
       </c>
       <c r="B152" t="n">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>what areas are within a quarter mile of a restaurant in gresham?</t>
+          <t>what areas are within 1000 meters of major transport routes in amsterdam?</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Gresham</t>
+          <t>Amsterdam</t>
         </is>
       </c>
       <c r="E152" t="inlineStr"/>
       <c r="F152" t="inlineStr"/>
       <c r="G152" t="inlineStr">
         <is>
-          <t>amenity=restaurant</t>
+          <t>highway=motorway</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
@@ -10036,19 +10068,19 @@
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
-        <v>195</v>
+        <v>216</v>
       </c>
       <c r="B153" t="n">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>which areas are within 800 meters of major highways in houston?</t>
+          <t>which areas are within 1000 meters of the major transport routes in amsterdam?</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Houston</t>
+          <t>Amsterdam</t>
         </is>
       </c>
       <c r="E153" t="inlineStr"/>
@@ -10099,19 +10131,19 @@
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
-        <v>196</v>
+        <v>217</v>
       </c>
       <c r="B154" t="n">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>what areas are within 800 meters of major highways in houston?</t>
+          <t>what areas are within 1000 meters of the major transport routes in amsterdam?</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Houston</t>
+          <t>Amsterdam</t>
         </is>
       </c>
       <c r="E154" t="inlineStr"/>
@@ -10162,14 +10194,14 @@
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
-        <v>200</v>
+        <v>221</v>
       </c>
       <c r="B155" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>tell me the area within 1000 meters of the arcades in oleander?</t>
+          <t>which areas are within 100 meters of hospitals in oleander?</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -10181,7 +10213,7 @@
       <c r="F155" t="inlineStr"/>
       <c r="G155" t="inlineStr">
         <is>
-          <t>leisure=amusement_arcade</t>
+          <t>amenity=hospital</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
@@ -10225,14 +10257,14 @@
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
-        <v>201</v>
+        <v>222</v>
       </c>
       <c r="B156" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>which areas are within 1000 meters of the arcades in oleander?</t>
+          <t>which areas are within 100 meters of the hospitals in oleander?</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
@@ -10244,7 +10276,7 @@
       <c r="F156" t="inlineStr"/>
       <c r="G156" t="inlineStr">
         <is>
-          <t>leisure=amusement_arcade</t>
+          <t>amenity=hospital</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
@@ -10288,14 +10320,14 @@
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
-        <v>202</v>
+        <v>223</v>
       </c>
       <c r="B157" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>what areas are within 1000 meters of the arcades in oleander?</t>
+          <t>what areas are within 100 meters of the hospitals in oleander?</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -10307,7 +10339,7 @@
       <c r="F157" t="inlineStr"/>
       <c r="G157" t="inlineStr">
         <is>
-          <t>leisure=amusement_arcade</t>
+          <t>amenity=hospital</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
@@ -10351,26 +10383,26 @@
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
-        <v>204</v>
+        <v>225</v>
       </c>
       <c r="B158" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>which areas are within 500 meters of universities in karbala in iraq?</t>
+          <t>what areas are within 2000 meters of playgrounds in oleander?</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Karbala, Iraq</t>
+          <t>Oleander</t>
         </is>
       </c>
       <c r="E158" t="inlineStr"/>
       <c r="F158" t="inlineStr"/>
       <c r="G158" t="inlineStr">
         <is>
-          <t>amenity=university</t>
+          <t>leisure=playground</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
@@ -10414,26 +10446,26 @@
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="B159" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>which areas are within 300 meters of runways in schiphol airport?</t>
+          <t>which areas are within 2000 meters of the playgrounds in oleander?</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Schiphol airport</t>
+          <t>Oleander</t>
         </is>
       </c>
       <c r="E159" t="inlineStr"/>
       <c r="F159" t="inlineStr"/>
       <c r="G159" t="inlineStr">
         <is>
-          <t>aeroway=runway</t>
+          <t>leisure=playground</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
@@ -10477,14 +10509,14 @@
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="B160" t="n">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>which areas are within 100 meters of hospitals in oleander?</t>
+          <t>what areas are within 2000 meters of the playgrounds in oleander?</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -10496,7 +10528,7 @@
       <c r="F160" t="inlineStr"/>
       <c r="G160" t="inlineStr">
         <is>
-          <t>amenity=hospital</t>
+          <t>leisure=playground</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
@@ -10540,26 +10572,26 @@
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="B161" t="n">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>which areas are within 100 meters of the hospitals in oleander?</t>
+          <t>which areas are within 500 meters of universities in karbala in iraq?</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Oleander</t>
+          <t>Karbala, Iraq</t>
         </is>
       </c>
       <c r="E161" t="inlineStr"/>
       <c r="F161" t="inlineStr"/>
       <c r="G161" t="inlineStr">
         <is>
-          <t>amenity=hospital</t>
+          <t>amenity=university</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
@@ -10603,26 +10635,30 @@
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
-        <v>220</v>
+        <v>231</v>
       </c>
       <c r="B162" t="n">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>what areas are within 100 meters of the hospitals in oleander?</t>
+          <t>what areas are within a mile of main roads in loudoun county in the united states of america</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Oleander</t>
-        </is>
-      </c>
-      <c r="E162" t="inlineStr"/>
+          <t>Loudoun County</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
       <c r="F162" t="inlineStr"/>
       <c r="G162" t="inlineStr">
         <is>
-          <t>amenity=hospital</t>
+          <t>highway=motorway</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
@@ -10666,26 +10702,30 @@
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="B163" t="n">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>what areas are within 2000 meters of playgrounds in oleander?</t>
+          <t>which areas are within a mile of main roads in loudoun county in the united states?</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Oleander</t>
-        </is>
-      </c>
-      <c r="E163" t="inlineStr"/>
+          <t>Loudoun County</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
       <c r="F163" t="inlineStr"/>
       <c r="G163" t="inlineStr">
         <is>
-          <t>leisure=playground</t>
+          <t>highway=motorway</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
@@ -10729,26 +10769,30 @@
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="B164" t="n">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>which areas are within 2000 meters of the playgrounds in oleander?</t>
+          <t>what areas are within a mile of main roads in loudoun county in the united states?</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Oleander</t>
-        </is>
-      </c>
-      <c r="E164" t="inlineStr"/>
+          <t>Loudoun County</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
       <c r="F164" t="inlineStr"/>
       <c r="G164" t="inlineStr">
         <is>
-          <t>leisure=playground</t>
+          <t>highway=motorway</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
@@ -10792,26 +10836,30 @@
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="B165" t="n">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>what areas are within 2000 meters of the playgrounds in oleander?</t>
+          <t>what areas are within a mile of main roads in loudoun county in the united states</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Oleander</t>
-        </is>
-      </c>
-      <c r="E165" t="inlineStr"/>
+          <t>Loudoun County</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
       <c r="F165" t="inlineStr"/>
       <c r="G165" t="inlineStr">
         <is>
-          <t>leisure=playground</t>
+          <t>highway=motorway</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
@@ -10855,22 +10903,26 @@
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="B166" t="n">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>what areas are within 1000 meters of major transport routes in amsterdam?</t>
+          <t>which areas are within a mile of main roads in loudoun county in the us?</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Amsterdam</t>
-        </is>
-      </c>
-      <c r="E166" t="inlineStr"/>
+          <t>Loudoun County</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
       <c r="F166" t="inlineStr"/>
       <c r="G166" t="inlineStr">
         <is>
@@ -10918,22 +10970,26 @@
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="B167" t="n">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>which areas are within 1000 meters of the major transport routes in amsterdam?</t>
+          <t>what areas are within a mile of main roads in loudoun county in the us?</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Amsterdam</t>
-        </is>
-      </c>
-      <c r="E167" t="inlineStr"/>
+          <t>Loudoun County</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
       <c r="F167" t="inlineStr"/>
       <c r="G167" t="inlineStr">
         <is>
@@ -10981,22 +11037,26 @@
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="B168" t="n">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>what areas are within 1000 meters of the major transport routes in amsterdam?</t>
+          <t>what areas are within one mile of main roads in loudoun county in the us?</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Amsterdam</t>
-        </is>
-      </c>
-      <c r="E168" t="inlineStr"/>
+          <t>Loudoun County</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
       <c r="F168" t="inlineStr"/>
       <c r="G168" t="inlineStr">
         <is>
@@ -11044,30 +11104,26 @@
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B169" t="n">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>what areas are within a mile of main roads in loudoun county in the united states of america</t>
+          <t>which areas are within 300 meters of runways in schiphol airport?</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Loudoun County</t>
-        </is>
-      </c>
-      <c r="E169" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
+          <t>Schiphol airport</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr"/>
       <c r="F169" t="inlineStr"/>
       <c r="G169" t="inlineStr">
         <is>
-          <t>highway=motorway</t>
+          <t>aeroway=runway</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
@@ -11111,30 +11167,26 @@
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B170" t="n">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>which areas are within a mile of main roads in loudoun county in the united states?</t>
+          <t>which areas are within 1000 meters of schools in oleander?</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Loudoun County</t>
-        </is>
-      </c>
-      <c r="E170" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
+          <t>Oleander</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr"/>
       <c r="F170" t="inlineStr"/>
       <c r="G170" t="inlineStr">
         <is>
-          <t>highway=motorway</t>
+          <t>amenity=school</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
@@ -11178,30 +11230,26 @@
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B171" t="n">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>what areas are within a mile of main roads in loudoun county in the united states?</t>
+          <t>which areas are within 1000 meters of the schools in oleander?</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Loudoun County</t>
-        </is>
-      </c>
-      <c r="E171" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
+          <t>Oleander</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr"/>
       <c r="F171" t="inlineStr"/>
       <c r="G171" t="inlineStr">
         <is>
-          <t>highway=motorway</t>
+          <t>amenity=school</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
@@ -11245,30 +11293,26 @@
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B172" t="n">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>what areas are within a mile of main roads in loudoun county in the united states</t>
+          <t>what areas are within 1000 meters of the schools in oleander?</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Loudoun County</t>
-        </is>
-      </c>
-      <c r="E172" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
+          <t>Oleander</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr"/>
       <c r="F172" t="inlineStr"/>
       <c r="G172" t="inlineStr">
         <is>
-          <t>highway=motorway</t>
+          <t>amenity=school</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
@@ -11312,32 +11356,24 @@
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="B173" t="n">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>which areas are within a mile of main roads in loudoun county in the us?</t>
+          <t>what areas in houston are not green belt areas?</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Loudoun County</t>
-        </is>
-      </c>
-      <c r="E173" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
+          <t>Houston</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr"/>
       <c r="F173" t="inlineStr"/>
-      <c r="G173" t="inlineStr">
-        <is>
-          <t>highway=motorway</t>
-        </is>
-      </c>
+      <c r="G173" t="inlineStr"/>
       <c r="H173" t="inlineStr">
         <is>
           <t>done</t>
@@ -11350,14 +11386,10 @@
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>Buffer</t>
-        </is>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
           <t>Overlay analysis</t>
         </is>
       </c>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="inlineStr"/>
       <c r="M173" t="inlineStr"/>
       <c r="N173" t="inlineStr"/>
@@ -11370,41 +11402,33 @@
       <c r="U173" t="inlineStr"/>
       <c r="V173" t="inlineStr">
         <is>
-          <t>data queries,buffer,overlay analysis</t>
+          <t>data queries,overlay analysis</t>
         </is>
       </c>
       <c r="W173" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="B174" t="n">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>what areas are within a mile of main roads in loudoun county in the us?</t>
+          <t>what areas are not green belts in houston?</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Loudoun County</t>
-        </is>
-      </c>
-      <c r="E174" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
+          <t>Houston</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr"/>
       <c r="F174" t="inlineStr"/>
-      <c r="G174" t="inlineStr">
-        <is>
-          <t>highway=motorway</t>
-        </is>
-      </c>
+      <c r="G174" t="inlineStr"/>
       <c r="H174" t="inlineStr">
         <is>
           <t>done</t>
@@ -11417,14 +11441,10 @@
       </c>
       <c r="J174" t="inlineStr">
         <is>
-          <t>Buffer</t>
-        </is>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
           <t>Overlay analysis</t>
         </is>
       </c>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="inlineStr"/>
       <c r="M174" t="inlineStr"/>
       <c r="N174" t="inlineStr"/>
@@ -11437,41 +11457,33 @@
       <c r="U174" t="inlineStr"/>
       <c r="V174" t="inlineStr">
         <is>
-          <t>data queries,buffer,overlay analysis</t>
+          <t>data queries,overlay analysis</t>
         </is>
       </c>
       <c r="W174" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="B175" t="n">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>what areas are within one mile of main roads in loudoun county in the us?</t>
+          <t>which areas are not green belt areas in houston?</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Loudoun County</t>
-        </is>
-      </c>
-      <c r="E175" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
+          <t>Houston</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr"/>
       <c r="F175" t="inlineStr"/>
-      <c r="G175" t="inlineStr">
-        <is>
-          <t>highway=motorway</t>
-        </is>
-      </c>
+      <c r="G175" t="inlineStr"/>
       <c r="H175" t="inlineStr">
         <is>
           <t>done</t>
@@ -11484,14 +11496,10 @@
       </c>
       <c r="J175" t="inlineStr">
         <is>
-          <t>Buffer</t>
-        </is>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
           <t>Overlay analysis</t>
         </is>
       </c>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="inlineStr"/>
       <c r="M175" t="inlineStr"/>
       <c r="N175" t="inlineStr"/>
@@ -11504,37 +11512,33 @@
       <c r="U175" t="inlineStr"/>
       <c r="V175" t="inlineStr">
         <is>
-          <t>data queries,buffer,overlay analysis</t>
+          <t>data queries,overlay analysis</t>
         </is>
       </c>
       <c r="W175" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="B176" t="n">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>show the areas within a quarter mile of the light rail stop in gresham?</t>
+          <t>which areas are not green belt areas in houston</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Gresham</t>
+          <t>Houston</t>
         </is>
       </c>
       <c r="E176" t="inlineStr"/>
       <c r="F176" t="inlineStr"/>
-      <c r="G176" t="inlineStr">
-        <is>
-          <t>railway=tram_stop, light_rail</t>
-        </is>
-      </c>
+      <c r="G176" t="inlineStr"/>
       <c r="H176" t="inlineStr">
         <is>
           <t>done</t>
@@ -11547,14 +11551,10 @@
       </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t>Buffer</t>
-        </is>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
           <t>Overlay analysis</t>
         </is>
       </c>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="inlineStr"/>
       <c r="M176" t="inlineStr"/>
       <c r="N176" t="inlineStr"/>
@@ -11567,37 +11567,33 @@
       <c r="U176" t="inlineStr"/>
       <c r="V176" t="inlineStr">
         <is>
-          <t>data queries,buffer,overlay analysis</t>
+          <t>data queries,overlay analysis</t>
         </is>
       </c>
       <c r="W176" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="B177" t="n">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>which areas are within a quarter mile of the light rail stop in gresham?</t>
+          <t>what areas are not green belt areas in houston?</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Gresham</t>
+          <t>Houston</t>
         </is>
       </c>
       <c r="E177" t="inlineStr"/>
       <c r="F177" t="inlineStr"/>
-      <c r="G177" t="inlineStr">
-        <is>
-          <t>railway=tram_stop, light_rail</t>
-        </is>
-      </c>
+      <c r="G177" t="inlineStr"/>
       <c r="H177" t="inlineStr">
         <is>
           <t>done</t>
@@ -11610,14 +11606,10 @@
       </c>
       <c r="J177" t="inlineStr">
         <is>
-          <t>Buffer</t>
-        </is>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
           <t>Overlay analysis</t>
         </is>
       </c>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="inlineStr"/>
       <c r="M177" t="inlineStr"/>
       <c r="N177" t="inlineStr"/>
@@ -11630,37 +11622,33 @@
       <c r="U177" t="inlineStr"/>
       <c r="V177" t="inlineStr">
         <is>
-          <t>data queries,buffer,overlay analysis</t>
+          <t>data queries,overlay analysis</t>
         </is>
       </c>
       <c r="W177" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="B178" t="n">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>what areas are within a quarter mile of the light rail stop in gresham?</t>
+          <t>what areas in houston are not flood plains?</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Gresham</t>
+          <t>Houston</t>
         </is>
       </c>
       <c r="E178" t="inlineStr"/>
       <c r="F178" t="inlineStr"/>
-      <c r="G178" t="inlineStr">
-        <is>
-          <t>railway=tram_stop, light_rail</t>
-        </is>
-      </c>
+      <c r="G178" t="inlineStr"/>
       <c r="H178" t="inlineStr">
         <is>
           <t>done</t>
@@ -11673,14 +11661,10 @@
       </c>
       <c r="J178" t="inlineStr">
         <is>
-          <t>Buffer</t>
-        </is>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
           <t>Overlay analysis</t>
         </is>
       </c>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="inlineStr"/>
       <c r="M178" t="inlineStr"/>
       <c r="N178" t="inlineStr"/>
@@ -11693,33 +11677,37 @@
       <c r="U178" t="inlineStr"/>
       <c r="V178" t="inlineStr">
         <is>
-          <t>data queries,buffer,overlay analysis</t>
+          <t>data queries,overlay analysis</t>
         </is>
       </c>
       <c r="W178" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B179" t="n">
-        <v>18</v>
+        <v>126</v>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>what areas in houston are not flood plains?</t>
+          <t>which houses are within 3 minutes of the nearest fire station from my current location in oleander?</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Houston</t>
+          <t>Oleander</t>
         </is>
       </c>
       <c r="E179" t="inlineStr"/>
       <c r="F179" t="inlineStr"/>
-      <c r="G179" t="inlineStr"/>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>amenity=fire_station</t>
+        </is>
+      </c>
       <c r="H179" t="inlineStr">
         <is>
           <t>done</t>
@@ -11732,14 +11720,34 @@
       </c>
       <c r="J179" t="inlineStr">
         <is>
+          <t>Network analysis</t>
+        </is>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>Network analysis</t>
+        </is>
+      </c>
+      <c r="M179" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="N179" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="O179" t="inlineStr">
+        <is>
           <t>Overlay analysis</t>
         </is>
       </c>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="inlineStr"/>
-      <c r="N179" t="inlineStr"/>
-      <c r="O179" t="inlineStr"/>
       <c r="P179" t="inlineStr"/>
       <c r="Q179" t="inlineStr"/>
       <c r="R179" t="inlineStr"/>
@@ -11748,11 +11756,11 @@
       <c r="U179" t="inlineStr"/>
       <c r="V179" t="inlineStr">
         <is>
-          <t>data queries,overlay analysis</t>
+          <t>data queries,network analysis,data queries,network analysis,classification,data queries,overlay analysis</t>
         </is>
       </c>
       <c r="W179" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="180">
@@ -11760,21 +11768,25 @@
         <v>256</v>
       </c>
       <c r="B180" t="n">
-        <v>19</v>
+        <v>126</v>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>what areas in houston are not green belt areas?</t>
+          <t>which house is within 3 minutes driving time from the nearest fire station from my current location in oleander?</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Houston</t>
+          <t>Oleander</t>
         </is>
       </c>
       <c r="E180" t="inlineStr"/>
       <c r="F180" t="inlineStr"/>
-      <c r="G180" t="inlineStr"/>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>amenity=fire_station</t>
+        </is>
+      </c>
       <c r="H180" t="inlineStr">
         <is>
           <t>done</t>
@@ -11787,14 +11799,34 @@
       </c>
       <c r="J180" t="inlineStr">
         <is>
+          <t>Network analysis</t>
+        </is>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>Network analysis</t>
+        </is>
+      </c>
+      <c r="M180" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="N180" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="O180" t="inlineStr">
+        <is>
           <t>Overlay analysis</t>
         </is>
       </c>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="inlineStr"/>
-      <c r="N180" t="inlineStr"/>
-      <c r="O180" t="inlineStr"/>
       <c r="P180" t="inlineStr"/>
       <c r="Q180" t="inlineStr"/>
       <c r="R180" t="inlineStr"/>
@@ -11803,11 +11835,11 @@
       <c r="U180" t="inlineStr"/>
       <c r="V180" t="inlineStr">
         <is>
-          <t>data queries,overlay analysis</t>
+          <t>data queries,network analysis,data queries,network analysis,classification,data queries,overlay analysis</t>
         </is>
       </c>
       <c r="W180" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="181">
@@ -11815,21 +11847,25 @@
         <v>257</v>
       </c>
       <c r="B181" t="n">
-        <v>19</v>
+        <v>126</v>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>what areas are not green belts in houston?</t>
+          <t>which houses are within 3 minutes driving time of the nearest fire station from my current location in oleander?</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Houston</t>
+          <t>Oleander</t>
         </is>
       </c>
       <c r="E181" t="inlineStr"/>
       <c r="F181" t="inlineStr"/>
-      <c r="G181" t="inlineStr"/>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>amenity=fire_station</t>
+        </is>
+      </c>
       <c r="H181" t="inlineStr">
         <is>
           <t>done</t>
@@ -11842,14 +11878,34 @@
       </c>
       <c r="J181" t="inlineStr">
         <is>
+          <t>Network analysis</t>
+        </is>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>Network analysis</t>
+        </is>
+      </c>
+      <c r="M181" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="N181" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="O181" t="inlineStr">
+        <is>
           <t>Overlay analysis</t>
         </is>
       </c>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="inlineStr"/>
-      <c r="N181" t="inlineStr"/>
-      <c r="O181" t="inlineStr"/>
       <c r="P181" t="inlineStr"/>
       <c r="Q181" t="inlineStr"/>
       <c r="R181" t="inlineStr"/>
@@ -11858,11 +11914,11 @@
       <c r="U181" t="inlineStr"/>
       <c r="V181" t="inlineStr">
         <is>
-          <t>data queries,overlay analysis</t>
+          <t>data queries,network analysis,data queries,network analysis,classification,data queries,overlay analysis</t>
         </is>
       </c>
       <c r="W181" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="182">
@@ -11870,21 +11926,25 @@
         <v>258</v>
       </c>
       <c r="B182" t="n">
-        <v>19</v>
+        <v>126</v>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>which areas are not green belt areas in houston?</t>
+          <t>which houses are within 3 minutes driving time from the nearest fire station from my current location in oleander?</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Houston</t>
+          <t>Oleander</t>
         </is>
       </c>
       <c r="E182" t="inlineStr"/>
       <c r="F182" t="inlineStr"/>
-      <c r="G182" t="inlineStr"/>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>amenity=fire_station</t>
+        </is>
+      </c>
       <c r="H182" t="inlineStr">
         <is>
           <t>done</t>
@@ -11897,14 +11957,34 @@
       </c>
       <c r="J182" t="inlineStr">
         <is>
+          <t>Network analysis</t>
+        </is>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>Network analysis</t>
+        </is>
+      </c>
+      <c r="M182" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="N182" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="O182" t="inlineStr">
+        <is>
           <t>Overlay analysis</t>
         </is>
       </c>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="inlineStr"/>
-      <c r="N182" t="inlineStr"/>
-      <c r="O182" t="inlineStr"/>
       <c r="P182" t="inlineStr"/>
       <c r="Q182" t="inlineStr"/>
       <c r="R182" t="inlineStr"/>
@@ -11913,28 +11993,28 @@
       <c r="U182" t="inlineStr"/>
       <c r="V182" t="inlineStr">
         <is>
-          <t>data queries,overlay analysis</t>
+          <t>data queries,network analysis,data queries,network analysis,classification,data queries,overlay analysis</t>
         </is>
       </c>
       <c r="W182" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B183" t="n">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>which areas are not green belt areas in houston</t>
+          <t>which areas are within 3 minutes of driving time from the nearest fire station from my current location in oleander?</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Houston</t>
+          <t>Oleander</t>
         </is>
       </c>
       <c r="E183" t="inlineStr"/>
@@ -11952,14 +12032,34 @@
       </c>
       <c r="J183" t="inlineStr">
         <is>
+          <t>Network analysis</t>
+        </is>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>Network analysis</t>
+        </is>
+      </c>
+      <c r="M183" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="N183" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="O183" t="inlineStr">
+        <is>
           <t>Overlay analysis</t>
         </is>
       </c>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="inlineStr"/>
-      <c r="N183" t="inlineStr"/>
-      <c r="O183" t="inlineStr"/>
       <c r="P183" t="inlineStr"/>
       <c r="Q183" t="inlineStr"/>
       <c r="R183" t="inlineStr"/>
@@ -11968,31 +12068,35 @@
       <c r="U183" t="inlineStr"/>
       <c r="V183" t="inlineStr">
         <is>
-          <t>data queries,overlay analysis</t>
+          <t>data queries,network analysis,data queries,network analysis,classification,data queries,overlay analysis</t>
         </is>
       </c>
       <c r="W183" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B184" t="n">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>what areas are not green belt areas in houston?</t>
+          <t>what areas are within two miles of urban land use in loudoun county in the united states?</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Houston</t>
-        </is>
-      </c>
-      <c r="E184" t="inlineStr"/>
+          <t>Loudoun County</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
       <c r="F184" t="inlineStr"/>
       <c r="G184" t="inlineStr"/>
       <c r="H184" t="inlineStr">
@@ -12002,16 +12106,24 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>Data editing</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
         <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>Buffer</t>
+        </is>
+      </c>
+      <c r="L184" t="inlineStr">
+        <is>
           <t>Overlay analysis</t>
         </is>
       </c>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
       <c r="M184" t="inlineStr"/>
       <c r="N184" t="inlineStr"/>
       <c r="O184" t="inlineStr"/>
@@ -12023,31 +12135,35 @@
       <c r="U184" t="inlineStr"/>
       <c r="V184" t="inlineStr">
         <is>
-          <t>data queries,overlay analysis</t>
+          <t>data editing,data queries,buffer,overlay analysis</t>
         </is>
       </c>
       <c r="W184" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B185" t="n">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>which areas are within 3 minutes of driving time from the nearest fire station from my current location in oleander?</t>
+          <t>what areas are within two miles of urban land use in loudoun county in the united states</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Oleander</t>
-        </is>
-      </c>
-      <c r="E185" t="inlineStr"/>
+          <t>Loudoun County</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
       <c r="F185" t="inlineStr"/>
       <c r="G185" t="inlineStr"/>
       <c r="H185" t="inlineStr">
@@ -12057,39 +12173,27 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>Data editing</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
         <is>
-          <t>Network analysis</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="K185" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>Buffer</t>
         </is>
       </c>
       <c r="L185" t="inlineStr">
         <is>
-          <t>Network analysis</t>
-        </is>
-      </c>
-      <c r="M185" t="inlineStr">
-        <is>
-          <t>classification</t>
-        </is>
-      </c>
-      <c r="N185" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="O185" t="inlineStr">
-        <is>
           <t>Overlay analysis</t>
         </is>
       </c>
+      <c r="M185" t="inlineStr"/>
+      <c r="N185" t="inlineStr"/>
+      <c r="O185" t="inlineStr"/>
       <c r="P185" t="inlineStr"/>
       <c r="Q185" t="inlineStr"/>
       <c r="R185" t="inlineStr"/>
@@ -12098,11 +12202,11 @@
       <c r="U185" t="inlineStr"/>
       <c r="V185" t="inlineStr">
         <is>
-          <t>data queries,network analysis,data queries,network analysis,classification,data queries,overlay analysis</t>
+          <t>data editing,data queries,buffer,overlay analysis</t>
         </is>
       </c>
       <c r="W185" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="186">
@@ -12110,25 +12214,25 @@
         <v>264</v>
       </c>
       <c r="B186" t="n">
-        <v>126</v>
+        <v>55</v>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>which houses are within 3 minutes of the nearest fire station from my current location in oleander?</t>
+          <t>which areas are within two miles of urban land use in loudoun county in the us?</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Oleander</t>
-        </is>
-      </c>
-      <c r="E186" t="inlineStr"/>
+          <t>Loudoun County</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
       <c r="F186" t="inlineStr"/>
-      <c r="G186" t="inlineStr">
-        <is>
-          <t>amenity=fire_station</t>
-        </is>
-      </c>
+      <c r="G186" t="inlineStr"/>
       <c r="H186" t="inlineStr">
         <is>
           <t>done</t>
@@ -12136,39 +12240,27 @@
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>Data editing</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
         <is>
-          <t>Network analysis</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="K186" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>Buffer</t>
         </is>
       </c>
       <c r="L186" t="inlineStr">
         <is>
-          <t>Network analysis</t>
-        </is>
-      </c>
-      <c r="M186" t="inlineStr">
-        <is>
-          <t>classification</t>
-        </is>
-      </c>
-      <c r="N186" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="O186" t="inlineStr">
-        <is>
           <t>Overlay analysis</t>
         </is>
       </c>
+      <c r="M186" t="inlineStr"/>
+      <c r="N186" t="inlineStr"/>
+      <c r="O186" t="inlineStr"/>
       <c r="P186" t="inlineStr"/>
       <c r="Q186" t="inlineStr"/>
       <c r="R186" t="inlineStr"/>
@@ -12177,11 +12269,11 @@
       <c r="U186" t="inlineStr"/>
       <c r="V186" t="inlineStr">
         <is>
-          <t>data queries,network analysis,data queries,network analysis,classification,data queries,overlay analysis</t>
+          <t>data editing,data queries,buffer,overlay analysis</t>
         </is>
       </c>
       <c r="W186" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="187">
@@ -12189,25 +12281,25 @@
         <v>265</v>
       </c>
       <c r="B187" t="n">
-        <v>126</v>
+        <v>55</v>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>which house is within 3 minutes driving time from the nearest fire station from my current location in oleander?</t>
+          <t>what areas are within two miles of urban land use in loudoun county in the us?</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Oleander</t>
-        </is>
-      </c>
-      <c r="E187" t="inlineStr"/>
+          <t>Loudoun County</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
       <c r="F187" t="inlineStr"/>
-      <c r="G187" t="inlineStr">
-        <is>
-          <t>amenity=fire_station</t>
-        </is>
-      </c>
+      <c r="G187" t="inlineStr"/>
       <c r="H187" t="inlineStr">
         <is>
           <t>done</t>
@@ -12215,39 +12307,27 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>Data editing</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
         <is>
-          <t>Network analysis</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="K187" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>Buffer</t>
         </is>
       </c>
       <c r="L187" t="inlineStr">
         <is>
-          <t>Network analysis</t>
-        </is>
-      </c>
-      <c r="M187" t="inlineStr">
-        <is>
-          <t>classification</t>
-        </is>
-      </c>
-      <c r="N187" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="O187" t="inlineStr">
-        <is>
           <t>Overlay analysis</t>
         </is>
       </c>
+      <c r="M187" t="inlineStr"/>
+      <c r="N187" t="inlineStr"/>
+      <c r="O187" t="inlineStr"/>
       <c r="P187" t="inlineStr"/>
       <c r="Q187" t="inlineStr"/>
       <c r="R187" t="inlineStr"/>
@@ -12256,37 +12336,33 @@
       <c r="U187" t="inlineStr"/>
       <c r="V187" t="inlineStr">
         <is>
-          <t>data queries,network analysis,data queries,network analysis,classification,data queries,overlay analysis</t>
+          <t>data editing,data queries,buffer,overlay analysis</t>
         </is>
       </c>
       <c r="W187" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B188" t="n">
-        <v>126</v>
+        <v>53</v>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>which houses are within 3 minutes driving time of the nearest fire station from my current location in oleander?</t>
+          <t>which areas are within a quarter mile of the planned commercial district in gresham?</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>Oleander</t>
+          <t>Gresham</t>
         </is>
       </c>
       <c r="E188" t="inlineStr"/>
       <c r="F188" t="inlineStr"/>
-      <c r="G188" t="inlineStr">
-        <is>
-          <t>amenity=fire_station</t>
-        </is>
-      </c>
+      <c r="G188" t="inlineStr"/>
       <c r="H188" t="inlineStr">
         <is>
           <t>done</t>
@@ -12294,39 +12370,27 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>Data editing</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
         <is>
-          <t>Network analysis</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="K188" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>Buffer</t>
         </is>
       </c>
       <c r="L188" t="inlineStr">
         <is>
-          <t>Network analysis</t>
-        </is>
-      </c>
-      <c r="M188" t="inlineStr">
-        <is>
-          <t>classification</t>
-        </is>
-      </c>
-      <c r="N188" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="O188" t="inlineStr">
-        <is>
           <t>Overlay analysis</t>
         </is>
       </c>
+      <c r="M188" t="inlineStr"/>
+      <c r="N188" t="inlineStr"/>
+      <c r="O188" t="inlineStr"/>
       <c r="P188" t="inlineStr"/>
       <c r="Q188" t="inlineStr"/>
       <c r="R188" t="inlineStr"/>
@@ -12335,37 +12399,33 @@
       <c r="U188" t="inlineStr"/>
       <c r="V188" t="inlineStr">
         <is>
-          <t>data queries,network analysis,data queries,network analysis,classification,data queries,overlay analysis</t>
+          <t>data editing,data queries,buffer,overlay analysis</t>
         </is>
       </c>
       <c r="W188" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B189" t="n">
-        <v>126</v>
+        <v>53</v>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>which houses are within 3 minutes driving time from the nearest fire station from my current location in oleander?</t>
+          <t>what areas are within a quarter mile of the planned commercial district in gresham?</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>Oleander</t>
+          <t>Gresham</t>
         </is>
       </c>
       <c r="E189" t="inlineStr"/>
       <c r="F189" t="inlineStr"/>
-      <c r="G189" t="inlineStr">
-        <is>
-          <t>amenity=fire_station</t>
-        </is>
-      </c>
+      <c r="G189" t="inlineStr"/>
       <c r="H189" t="inlineStr">
         <is>
           <t>done</t>
@@ -12373,39 +12433,27 @@
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>Data editing</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
         <is>
-          <t>Network analysis</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="K189" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>Buffer</t>
         </is>
       </c>
       <c r="L189" t="inlineStr">
         <is>
-          <t>Network analysis</t>
-        </is>
-      </c>
-      <c r="M189" t="inlineStr">
-        <is>
-          <t>classification</t>
-        </is>
-      </c>
-      <c r="N189" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="O189" t="inlineStr">
-        <is>
           <t>Overlay analysis</t>
         </is>
       </c>
+      <c r="M189" t="inlineStr"/>
+      <c r="N189" t="inlineStr"/>
+      <c r="O189" t="inlineStr"/>
       <c r="P189" t="inlineStr"/>
       <c r="Q189" t="inlineStr"/>
       <c r="R189" t="inlineStr"/>
@@ -12414,28 +12462,28 @@
       <c r="U189" t="inlineStr"/>
       <c r="V189" t="inlineStr">
         <is>
-          <t>data queries,network analysis,data queries,network analysis,classification,data queries,overlay analysis</t>
+          <t>data editing,data queries,buffer,overlay analysis</t>
         </is>
       </c>
       <c r="W189" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B190" t="n">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>which areas are within a quarter mile of the planned commercial district in gresham?</t>
+          <t>what areas in the cape peninsula have a slope greater than 15 percent and smaller than 60 percent?</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>Gresham</t>
+          <t>the Cape Peninsula</t>
         </is>
       </c>
       <c r="E190" t="inlineStr"/>
@@ -12448,25 +12496,29 @@
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>Data editing</t>
+          <t>Topography</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>classification</t>
         </is>
       </c>
       <c r="K190" t="inlineStr">
         <is>
-          <t>Buffer</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="L190" t="inlineStr">
         <is>
+          <t>Data model conversion</t>
+        </is>
+      </c>
+      <c r="M190" t="inlineStr">
+        <is>
           <t>Overlay analysis</t>
         </is>
       </c>
-      <c r="M190" t="inlineStr"/>
       <c r="N190" t="inlineStr"/>
       <c r="O190" t="inlineStr"/>
       <c r="P190" t="inlineStr"/>
@@ -12477,28 +12529,28 @@
       <c r="U190" t="inlineStr"/>
       <c r="V190" t="inlineStr">
         <is>
-          <t>data editing,data queries,buffer,overlay analysis</t>
+          <t>topography,classification,data queries,data model conversion,overlay analysis</t>
         </is>
       </c>
       <c r="W190" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B191" t="n">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>what areas are within a quarter mile of the planned commercial district in gresham?</t>
+          <t>what areas have a slope greater than 15 percent and less than 60 percent in the cape peninsula?</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Gresham</t>
+          <t>the Cape Peninsula</t>
         </is>
       </c>
       <c r="E191" t="inlineStr"/>
@@ -12511,25 +12563,29 @@
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>Data editing</t>
+          <t>Topography</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>classification</t>
         </is>
       </c>
       <c r="K191" t="inlineStr">
         <is>
-          <t>Buffer</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="L191" t="inlineStr">
         <is>
+          <t>Data model conversion</t>
+        </is>
+      </c>
+      <c r="M191" t="inlineStr">
+        <is>
           <t>Overlay analysis</t>
         </is>
       </c>
-      <c r="M191" t="inlineStr"/>
       <c r="N191" t="inlineStr"/>
       <c r="O191" t="inlineStr"/>
       <c r="P191" t="inlineStr"/>
@@ -12540,11 +12596,11 @@
       <c r="U191" t="inlineStr"/>
       <c r="V191" t="inlineStr">
         <is>
-          <t>data editing,data queries,buffer,overlay analysis</t>
+          <t>topography,classification,data queries,data model conversion,overlay analysis</t>
         </is>
       </c>
       <c r="W191" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="192">
@@ -12552,23 +12608,19 @@
         <v>272</v>
       </c>
       <c r="B192" t="n">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>what areas are within two miles of urban land use in loudoun county in the united states?</t>
+          <t>what areas have a slope greater than 15 percent and smaller than 60 percent in the cape peninsula?</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Loudoun County</t>
-        </is>
-      </c>
-      <c r="E192" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
+          <t>the Cape Peninsula</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr"/>
       <c r="F192" t="inlineStr"/>
       <c r="G192" t="inlineStr"/>
       <c r="H192" t="inlineStr">
@@ -12578,25 +12630,29 @@
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>Data editing</t>
+          <t>Topography</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>classification</t>
         </is>
       </c>
       <c r="K192" t="inlineStr">
         <is>
-          <t>Buffer</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="L192" t="inlineStr">
         <is>
+          <t>Data model conversion</t>
+        </is>
+      </c>
+      <c r="M192" t="inlineStr">
+        <is>
           <t>Overlay analysis</t>
         </is>
       </c>
-      <c r="M192" t="inlineStr"/>
       <c r="N192" t="inlineStr"/>
       <c r="O192" t="inlineStr"/>
       <c r="P192" t="inlineStr"/>
@@ -12607,11 +12663,11 @@
       <c r="U192" t="inlineStr"/>
       <c r="V192" t="inlineStr">
         <is>
-          <t>data editing,data queries,buffer,overlay analysis</t>
+          <t>topography,classification,data queries,data model conversion,overlay analysis</t>
         </is>
       </c>
       <c r="W192" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="193">
@@ -12619,23 +12675,19 @@
         <v>273</v>
       </c>
       <c r="B193" t="n">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>what areas are within two miles of urban land use in loudoun county in the united states</t>
+          <t>what areas have a slope larger than 15 percent and smaller than 60 percent in the cape peninsula?</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>Loudoun County</t>
-        </is>
-      </c>
-      <c r="E193" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
+          <t>the Cape Peninsula</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr"/>
       <c r="F193" t="inlineStr"/>
       <c r="G193" t="inlineStr"/>
       <c r="H193" t="inlineStr">
@@ -12645,25 +12697,29 @@
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>Data editing</t>
+          <t>Topography</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>classification</t>
         </is>
       </c>
       <c r="K193" t="inlineStr">
         <is>
-          <t>Buffer</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="L193" t="inlineStr">
         <is>
+          <t>Data model conversion</t>
+        </is>
+      </c>
+      <c r="M193" t="inlineStr">
+        <is>
           <t>Overlay analysis</t>
         </is>
       </c>
-      <c r="M193" t="inlineStr"/>
       <c r="N193" t="inlineStr"/>
       <c r="O193" t="inlineStr"/>
       <c r="P193" t="inlineStr"/>
@@ -12674,11 +12730,11 @@
       <c r="U193" t="inlineStr"/>
       <c r="V193" t="inlineStr">
         <is>
-          <t>data editing,data queries,buffer,overlay analysis</t>
+          <t>topography,classification,data queries,data model conversion,overlay analysis</t>
         </is>
       </c>
       <c r="W193" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="194">
@@ -12686,23 +12742,19 @@
         <v>274</v>
       </c>
       <c r="B194" t="n">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>which areas are within two miles of urban land use in loudoun county in the us?</t>
+          <t>what areas have slopes larger than 15 percent and smaller than 60 percent in the cape peninsula?</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Loudoun County</t>
-        </is>
-      </c>
-      <c r="E194" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
+          <t>the Cape Peninsula</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr"/>
       <c r="F194" t="inlineStr"/>
       <c r="G194" t="inlineStr"/>
       <c r="H194" t="inlineStr">
@@ -12712,25 +12764,29 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>Data editing</t>
+          <t>Topography</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>classification</t>
         </is>
       </c>
       <c r="K194" t="inlineStr">
         <is>
-          <t>Buffer</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="L194" t="inlineStr">
         <is>
+          <t>Data model conversion</t>
+        </is>
+      </c>
+      <c r="M194" t="inlineStr">
+        <is>
           <t>Overlay analysis</t>
         </is>
       </c>
-      <c r="M194" t="inlineStr"/>
       <c r="N194" t="inlineStr"/>
       <c r="O194" t="inlineStr"/>
       <c r="P194" t="inlineStr"/>
@@ -12741,35 +12797,31 @@
       <c r="U194" t="inlineStr"/>
       <c r="V194" t="inlineStr">
         <is>
-          <t>data editing,data queries,buffer,overlay analysis</t>
+          <t>topography,classification,data queries,data model conversion,overlay analysis</t>
         </is>
       </c>
       <c r="W194" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B195" t="n">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>what areas are within two miles of urban land use in loudoun county in the us?</t>
+          <t>what areas in spain have a slope of more than 10 percent</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>Loudoun County</t>
-        </is>
-      </c>
-      <c r="E195" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
+          <t>Spain</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr"/>
       <c r="F195" t="inlineStr"/>
       <c r="G195" t="inlineStr"/>
       <c r="H195" t="inlineStr">
@@ -12779,25 +12831,29 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>Data editing</t>
+          <t>Topography</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>classification</t>
         </is>
       </c>
       <c r="K195" t="inlineStr">
         <is>
-          <t>Buffer</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="L195" t="inlineStr">
         <is>
+          <t>Data model conversion</t>
+        </is>
+      </c>
+      <c r="M195" t="inlineStr">
+        <is>
           <t>Overlay analysis</t>
         </is>
       </c>
-      <c r="M195" t="inlineStr"/>
       <c r="N195" t="inlineStr"/>
       <c r="O195" t="inlineStr"/>
       <c r="P195" t="inlineStr"/>
@@ -12808,11 +12864,11 @@
       <c r="U195" t="inlineStr"/>
       <c r="V195" t="inlineStr">
         <is>
-          <t>data editing,data queries,buffer,overlay analysis</t>
+          <t>topography,classification,data queries,data model conversion,overlay analysis</t>
         </is>
       </c>
       <c r="W195" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="196">
@@ -12820,16 +12876,16 @@
         <v>277</v>
       </c>
       <c r="B196" t="n">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>what areas in the cape peninsula have an aspect larger than 45 degrees and smaller than 135 degrees?</t>
+          <t>what areas in spain have a slope of more than 10 percent?</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>the Cape Peninsula</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="E196" t="inlineStr"/>
@@ -12884,14 +12940,14 @@
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B197" t="n">
         <v>58</v>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>what areas in spain have a slope of more than 10 percent</t>
+          <t>what areas in spain have a slope greater than 10 percent?</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
@@ -12951,14 +13007,14 @@
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B198" t="n">
         <v>58</v>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>what areas in spain have a slope of more than 10 percent?</t>
+          <t>what areas in spain have a slope greater than 10 percent</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
@@ -13021,11 +13077,11 @@
         <v>281</v>
       </c>
       <c r="B199" t="n">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>what areas in spain have a slope greater than 10 percent?</t>
+          <t>what areas in spain have altitudes between 700 and 2000 meters?</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
@@ -13088,11 +13144,11 @@
         <v>282</v>
       </c>
       <c r="B200" t="n">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>what areas in spain have a slope greater than 10 percent</t>
+          <t>what areas have an altitude between 700 and 2000 meters in spain?</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
@@ -13155,11 +13211,11 @@
         <v>284</v>
       </c>
       <c r="B201" t="n">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>what areas in the cape peninsula have a slope greater than 15 percent and smaller than 60 percent?</t>
+          <t>which regions of cape peninsula have an annual rainfall of more than 1000 millimeters</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
@@ -13177,7 +13233,7 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>Topography</t>
+          <t xml:space="preserve">Geostatistics  </t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -13210,11 +13266,11 @@
       <c r="U201" t="inlineStr"/>
       <c r="V201" t="inlineStr">
         <is>
-          <t>topography,classification,data queries,data model conversion,overlay analysis</t>
+          <t>geostatistics  ,classification,data queries,data model conversion,overlay analysis</t>
         </is>
       </c>
       <c r="W201" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="202">
@@ -13222,11 +13278,11 @@
         <v>285</v>
       </c>
       <c r="B202" t="n">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>what areas have a slope greater than 15 percent and less than 60 percent in the cape peninsula?</t>
+          <t>which areas in the cape peninsula have an annual rainfall of more than 1000 millimeters?</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
@@ -13244,7 +13300,7 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>Topography</t>
+          <t xml:space="preserve">Geostatistics  </t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -13277,11 +13333,11 @@
       <c r="U202" t="inlineStr"/>
       <c r="V202" t="inlineStr">
         <is>
-          <t>topography,classification,data queries,data model conversion,overlay analysis</t>
+          <t>geostatistics  ,classification,data queries,data model conversion,overlay analysis</t>
         </is>
       </c>
       <c r="W202" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="203">
@@ -13289,11 +13345,11 @@
         <v>286</v>
       </c>
       <c r="B203" t="n">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>what areas have a slope greater than 15 percent and smaller than 60 percent in the cape peninsula?</t>
+          <t>what areas in the cape peninsula have an annual rainfall of more than 1000 millimeters?</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
@@ -13311,7 +13367,7 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>Topography</t>
+          <t xml:space="preserve">Geostatistics  </t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -13344,11 +13400,11 @@
       <c r="U203" t="inlineStr"/>
       <c r="V203" t="inlineStr">
         <is>
-          <t>topography,classification,data queries,data model conversion,overlay analysis</t>
+          <t>geostatistics  ,classification,data queries,data model conversion,overlay analysis</t>
         </is>
       </c>
       <c r="W203" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="204">
@@ -13356,11 +13412,11 @@
         <v>287</v>
       </c>
       <c r="B204" t="n">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>what areas have a slope larger than 15 percent and smaller than 60 percent in the cape peninsula?</t>
+          <t>what regions of cape peninsula have an annual rainfall of more than 1000 millimeters</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
@@ -13378,7 +13434,7 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>Topography</t>
+          <t xml:space="preserve">Geostatistics  </t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -13411,11 +13467,11 @@
       <c r="U204" t="inlineStr"/>
       <c r="V204" t="inlineStr">
         <is>
-          <t>topography,classification,data queries,data model conversion,overlay analysis</t>
+          <t>geostatistics  ,classification,data queries,data model conversion,overlay analysis</t>
         </is>
       </c>
       <c r="W204" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="205">
@@ -13423,11 +13479,11 @@
         <v>288</v>
       </c>
       <c r="B205" t="n">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>what areas have slopes larger than 15 percent and smaller than 60 percent in the cape peninsula?</t>
+          <t>which areas have an annual rainfall of more than 1000 millimeters in the cape peninsula?</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
@@ -13445,7 +13501,7 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>Topography</t>
+          <t xml:space="preserve">Geostatistics  </t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -13478,37 +13534,33 @@
       <c r="U205" t="inlineStr"/>
       <c r="V205" t="inlineStr">
         <is>
-          <t>topography,classification,data queries,data model conversion,overlay analysis</t>
+          <t>geostatistics  ,classification,data queries,data model conversion,overlay analysis</t>
         </is>
       </c>
       <c r="W205" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B206" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>what areas in spain have a temperature greater than 0 degrees?</t>
+          <t>what areas have an annual rainfall of more than 1000 millimeters in the cape peninsula?</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>the Cape Peninsula</t>
         </is>
       </c>
       <c r="E206" t="inlineStr"/>
       <c r="F206" t="inlineStr"/>
-      <c r="G206" t="inlineStr">
-        <is>
-          <t>monitoring:weather=yes</t>
-        </is>
-      </c>
+      <c r="G206" t="inlineStr"/>
       <c r="H206" t="inlineStr">
         <is>
           <t>done</t>
@@ -13565,7 +13617,7 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>what areas in spain have temperatures greater than 0 degrees?</t>
+          <t>what areas in spain have a temperature greater than 0 degrees?</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
@@ -13636,7 +13688,7 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>what areas in spain have a temperature greater than 0 degrees in celsius?</t>
+          <t>what areas in spain have temperatures greater than 0 degrees?</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
@@ -13707,7 +13759,7 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>what areas in spain have a temperature in celsius greater than 0 degrees?</t>
+          <t>what areas in spain have a temperature greater than 0 degrees in celsius?</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
@@ -13842,24 +13894,28 @@
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B211" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>which regions of cape peninsula have an annual rainfall of more than 1000 millimeters</t>
+          <t>what areas in spain have a temperature in celsius greater than 0 degrees?</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>the Cape Peninsula</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="E211" t="inlineStr"/>
       <c r="F211" t="inlineStr"/>
-      <c r="G211" t="inlineStr"/>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>monitoring:weather=yes</t>
+        </is>
+      </c>
       <c r="H211" t="inlineStr">
         <is>
           <t>done</t>
@@ -13909,24 +13965,28 @@
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="B212" t="n">
-        <v>60</v>
+        <v>106</v>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>which areas in the cape peninsula have an annual rainfall of more than 1000 millimeters?</t>
+          <t>which liquor stores are within 1000 feet of libraries in el cajon?</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>the Cape Peninsula</t>
+          <t>El Cajon</t>
         </is>
       </c>
       <c r="E212" t="inlineStr"/>
       <c r="F212" t="inlineStr"/>
-      <c r="G212" t="inlineStr"/>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>shop=alcohol, amenity=library</t>
+        </is>
+      </c>
       <c r="H212" t="inlineStr">
         <is>
           <t>done</t>
@@ -13934,29 +13994,25 @@
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t xml:space="preserve">Geostatistics  </t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
         <is>
-          <t>classification</t>
+          <t>buffer</t>
         </is>
       </c>
       <c r="K212" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>Overlay analysis</t>
         </is>
       </c>
       <c r="L212" t="inlineStr">
         <is>
-          <t>Data model conversion</t>
-        </is>
-      </c>
-      <c r="M212" t="inlineStr">
-        <is>
-          <t>Overlay analysis</t>
-        </is>
-      </c>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="M212" t="inlineStr"/>
       <c r="N212" t="inlineStr"/>
       <c r="O212" t="inlineStr"/>
       <c r="P212" t="inlineStr"/>
@@ -13967,33 +14023,37 @@
       <c r="U212" t="inlineStr"/>
       <c r="V212" t="inlineStr">
         <is>
-          <t>geostatistics  ,classification,data queries,data model conversion,overlay analysis</t>
+          <t>data queries,buffer,overlay analysis,data queries</t>
         </is>
       </c>
       <c r="W212" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="B213" t="n">
-        <v>60</v>
+        <v>106</v>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>what areas in the cape peninsula have an annual rainfall of more than 1000 millimeters?</t>
+          <t>which liquor stores are within 1000 feet of libraries in el cajon</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>the Cape Peninsula</t>
+          <t>El Cajon</t>
         </is>
       </c>
       <c r="E213" t="inlineStr"/>
       <c r="F213" t="inlineStr"/>
-      <c r="G213" t="inlineStr"/>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>shop=alcohol, amenity=library</t>
+        </is>
+      </c>
       <c r="H213" t="inlineStr">
         <is>
           <t>done</t>
@@ -14001,29 +14061,25 @@
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t xml:space="preserve">Geostatistics  </t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
         <is>
-          <t>classification</t>
+          <t>buffer</t>
         </is>
       </c>
       <c r="K213" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>Overlay analysis</t>
         </is>
       </c>
       <c r="L213" t="inlineStr">
         <is>
-          <t>Data model conversion</t>
-        </is>
-      </c>
-      <c r="M213" t="inlineStr">
-        <is>
-          <t>Overlay analysis</t>
-        </is>
-      </c>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="M213" t="inlineStr"/>
       <c r="N213" t="inlineStr"/>
       <c r="O213" t="inlineStr"/>
       <c r="P213" t="inlineStr"/>
@@ -14034,33 +14090,37 @@
       <c r="U213" t="inlineStr"/>
       <c r="V213" t="inlineStr">
         <is>
-          <t>geostatistics  ,classification,data queries,data model conversion,overlay analysis</t>
+          <t>data queries,buffer,overlay analysis,data queries</t>
         </is>
       </c>
       <c r="W213" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="B214" t="n">
-        <v>60</v>
+        <v>106</v>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>what regions of cape peninsula have an annual rainfall of more than 1000 millimeters</t>
+          <t>what liquor stores are within 1000 feet of libraries in el cajon?</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>the Cape Peninsula</t>
+          <t>El Cajon</t>
         </is>
       </c>
       <c r="E214" t="inlineStr"/>
       <c r="F214" t="inlineStr"/>
-      <c r="G214" t="inlineStr"/>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>shop=alcohol, amenity=library</t>
+        </is>
+      </c>
       <c r="H214" t="inlineStr">
         <is>
           <t>done</t>
@@ -14068,29 +14128,25 @@
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t xml:space="preserve">Geostatistics  </t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
         <is>
-          <t>classification</t>
+          <t>buffer</t>
         </is>
       </c>
       <c r="K214" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>Overlay analysis</t>
         </is>
       </c>
       <c r="L214" t="inlineStr">
         <is>
-          <t>Data model conversion</t>
-        </is>
-      </c>
-      <c r="M214" t="inlineStr">
-        <is>
-          <t>Overlay analysis</t>
-        </is>
-      </c>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="M214" t="inlineStr"/>
       <c r="N214" t="inlineStr"/>
       <c r="O214" t="inlineStr"/>
       <c r="P214" t="inlineStr"/>
@@ -14101,33 +14157,37 @@
       <c r="U214" t="inlineStr"/>
       <c r="V214" t="inlineStr">
         <is>
-          <t>geostatistics  ,classification,data queries,data model conversion,overlay analysis</t>
+          <t>data queries,buffer,overlay analysis,data queries</t>
         </is>
       </c>
       <c r="W214" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="B215" t="n">
-        <v>60</v>
+        <v>107</v>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>which areas have an annual rainfall of more than 1000 millimeters in the cape peninsula?</t>
+          <t>what liquor stores are within 1000 feet of el cajon parks</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>the Cape Peninsula</t>
+          <t>El Cajon</t>
         </is>
       </c>
       <c r="E215" t="inlineStr"/>
       <c r="F215" t="inlineStr"/>
-      <c r="G215" t="inlineStr"/>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>shop=alcohol, leisure=park</t>
+        </is>
+      </c>
       <c r="H215" t="inlineStr">
         <is>
           <t>done</t>
@@ -14135,29 +14195,25 @@
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t xml:space="preserve">Geostatistics  </t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
         <is>
-          <t>classification</t>
+          <t>buffer</t>
         </is>
       </c>
       <c r="K215" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>Overlay analysis</t>
         </is>
       </c>
       <c r="L215" t="inlineStr">
         <is>
-          <t>Data model conversion</t>
-        </is>
-      </c>
-      <c r="M215" t="inlineStr">
-        <is>
-          <t>Overlay analysis</t>
-        </is>
-      </c>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="M215" t="inlineStr"/>
       <c r="N215" t="inlineStr"/>
       <c r="O215" t="inlineStr"/>
       <c r="P215" t="inlineStr"/>
@@ -14168,33 +14224,37 @@
       <c r="U215" t="inlineStr"/>
       <c r="V215" t="inlineStr">
         <is>
-          <t>geostatistics  ,classification,data queries,data model conversion,overlay analysis</t>
+          <t>data queries,buffer,overlay analysis,data queries</t>
         </is>
       </c>
       <c r="W215" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="B216" t="n">
-        <v>60</v>
+        <v>107</v>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>what areas have an annual rainfall of more than 1000 millimeters in the cape peninsula?</t>
+          <t>which liquor stores are within 1000 feet of the parks in el cajon?</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>the Cape Peninsula</t>
+          <t>El Cajon</t>
         </is>
       </c>
       <c r="E216" t="inlineStr"/>
       <c r="F216" t="inlineStr"/>
-      <c r="G216" t="inlineStr"/>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>shop=alcohol, leisure=park</t>
+        </is>
+      </c>
       <c r="H216" t="inlineStr">
         <is>
           <t>done</t>
@@ -14202,29 +14262,25 @@
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t xml:space="preserve">Geostatistics  </t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
         <is>
-          <t>classification</t>
+          <t>buffer</t>
         </is>
       </c>
       <c r="K216" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>Overlay analysis</t>
         </is>
       </c>
       <c r="L216" t="inlineStr">
         <is>
-          <t>Data model conversion</t>
-        </is>
-      </c>
-      <c r="M216" t="inlineStr">
-        <is>
-          <t>Overlay analysis</t>
-        </is>
-      </c>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="M216" t="inlineStr"/>
       <c r="N216" t="inlineStr"/>
       <c r="O216" t="inlineStr"/>
       <c r="P216" t="inlineStr"/>
@@ -14235,23 +14291,23 @@
       <c r="U216" t="inlineStr"/>
       <c r="V216" t="inlineStr">
         <is>
-          <t>geostatistics  ,classification,data queries,data model conversion,overlay analysis</t>
+          <t>data queries,buffer,overlay analysis,data queries</t>
         </is>
       </c>
       <c r="W216" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="B217" t="n">
         <v>107</v>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>what liquor stores are within 1000 feet of el cajon parks</t>
+          <t>what liquor stores are within 1000 feet of the parks in el cajon?</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
@@ -14311,14 +14367,14 @@
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="B218" t="n">
         <v>107</v>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>which liquor stores are within 1000 feet of the parks in el cajon?</t>
+          <t>what liquor stores are within 1000 feet of the parks in el cajon</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
@@ -14378,14 +14434,14 @@
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="B219" t="n">
         <v>107</v>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>what liquor stores are within 1000 feet of the parks in el cajon?</t>
+          <t>which liquor stores are within 1000 feet of parks in el cajon?</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
@@ -14445,14 +14501,14 @@
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="B220" t="n">
         <v>107</v>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>what liquor stores are within 1000 feet of the parks in el cajon</t>
+          <t>which liquor stores are within 1000 feet of parks in el cajon</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
@@ -14512,26 +14568,26 @@
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="B221" t="n">
-        <v>107</v>
+        <v>67</v>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>which liquor stores are within 1000 feet of parks in el cajon?</t>
+          <t>which houses are for sale and within 1km of the parks in utrecht?</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>El Cajon</t>
+          <t>Utrecht</t>
         </is>
       </c>
       <c r="E221" t="inlineStr"/>
       <c r="F221" t="inlineStr"/>
       <c r="G221" t="inlineStr">
         <is>
-          <t>shop=alcohol, leisure=park</t>
+          <t>leisure=park, building=house</t>
         </is>
       </c>
       <c r="H221" t="inlineStr">
@@ -14546,7 +14602,7 @@
       </c>
       <c r="J221" t="inlineStr">
         <is>
-          <t>buffer</t>
+          <t>Buffer</t>
         </is>
       </c>
       <c r="K221" t="inlineStr">
@@ -14579,14 +14635,14 @@
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="B222" t="n">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>which liquor stores are within 1000 feet of parks in el cajon</t>
+          <t>which liquor stores are within 1000 feet of schools in el cajon?</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
@@ -14598,7 +14654,7 @@
       <c r="F222" t="inlineStr"/>
       <c r="G222" t="inlineStr">
         <is>
-          <t>shop=alcohol, leisure=park</t>
+          <t>shop=alcohol, amenity=school</t>
         </is>
       </c>
       <c r="H222" t="inlineStr">
@@ -14646,14 +14702,14 @@
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="B223" t="n">
         <v>108</v>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>which liquor stores are within 1000 feet of schools in el cajon?</t>
+          <t>what liquor stores are within 1000 feet of schools in el cajon?</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
@@ -14713,26 +14769,26 @@
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="B224" t="n">
-        <v>108</v>
+        <v>66</v>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>what liquor stores are within 1000 feet of schools in el cajon?</t>
+          <t>which houses are for sale and within 1 km of the nearest supermarket from my current location in utrecht?</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>El Cajon</t>
+          <t>Utrecht</t>
         </is>
       </c>
       <c r="E224" t="inlineStr"/>
       <c r="F224" t="inlineStr"/>
       <c r="G224" t="inlineStr">
         <is>
-          <t>shop=alcohol, amenity=school</t>
+          <t>shop=*, building=house</t>
         </is>
       </c>
       <c r="H224" t="inlineStr">
@@ -14742,25 +14798,29 @@
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>network analysis</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
         <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
           <t>buffer</t>
         </is>
       </c>
-      <c r="K224" t="inlineStr">
+      <c r="L224" t="inlineStr">
         <is>
           <t>Overlay analysis</t>
         </is>
       </c>
-      <c r="L224" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="M224" t="inlineStr"/>
+      <c r="M224" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
       <c r="N224" t="inlineStr"/>
       <c r="O224" t="inlineStr"/>
       <c r="P224" t="inlineStr"/>
@@ -14771,37 +14831,37 @@
       <c r="U224" t="inlineStr"/>
       <c r="V224" t="inlineStr">
         <is>
-          <t>data queries,buffer,overlay analysis,data queries</t>
+          <t>network analysis,data queries,buffer,overlay analysis,data queries</t>
         </is>
       </c>
       <c r="W224" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="B225" t="n">
-        <v>133</v>
+        <v>104</v>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>which vacant lots in hillsboro are within 1 mile of a freeway?</t>
+          <t>what's the median household income for each census block in tarrant county?</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>Hillsboro</t>
-        </is>
-      </c>
-      <c r="E225" t="inlineStr"/>
+          <t>Tarrant County</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Texas</t>
+        </is>
+      </c>
       <c r="F225" t="inlineStr"/>
-      <c r="G225" t="inlineStr">
-        <is>
-          <t>abandoned:*=*, highway=motorway</t>
-        </is>
-      </c>
+      <c r="G225" t="inlineStr"/>
       <c r="H225" t="inlineStr">
         <is>
           <t>done</t>
@@ -14809,17 +14869,17 @@
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>data editing</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
         <is>
-          <t>buffer</t>
+          <t>Overlay analysis</t>
         </is>
       </c>
       <c r="K225" t="inlineStr">
         <is>
-          <t>Overlay analysis</t>
+          <t>data editing</t>
         </is>
       </c>
       <c r="L225" t="inlineStr">
@@ -14838,37 +14898,37 @@
       <c r="U225" t="inlineStr"/>
       <c r="V225" t="inlineStr">
         <is>
-          <t>data queries,buffer,overlay analysis,data queries</t>
+          <t>data editing,overlay analysis,data editing,data queries</t>
         </is>
       </c>
       <c r="W225" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="B226" t="n">
-        <v>133</v>
+        <v>104</v>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>which vacant lots are located within 1 mile of a freeway in hillsboro?</t>
+          <t>what is the median household income for each census block in tarrant county?</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>Hillsboro</t>
-        </is>
-      </c>
-      <c r="E226" t="inlineStr"/>
+          <t>Tarrant County</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Texas</t>
+        </is>
+      </c>
       <c r="F226" t="inlineStr"/>
-      <c r="G226" t="inlineStr">
-        <is>
-          <t>abandoned:*=*, highway=motorway</t>
-        </is>
-      </c>
+      <c r="G226" t="inlineStr"/>
       <c r="H226" t="inlineStr">
         <is>
           <t>done</t>
@@ -14876,17 +14936,17 @@
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>data editing</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
         <is>
-          <t>buffer</t>
+          <t>Overlay analysis</t>
         </is>
       </c>
       <c r="K226" t="inlineStr">
         <is>
-          <t>Overlay analysis</t>
+          <t>data editing</t>
         </is>
       </c>
       <c r="L226" t="inlineStr">
@@ -14905,37 +14965,37 @@
       <c r="U226" t="inlineStr"/>
       <c r="V226" t="inlineStr">
         <is>
-          <t>data queries,buffer,overlay analysis,data queries</t>
+          <t>data editing,overlay analysis,data editing,data queries</t>
         </is>
       </c>
       <c r="W226" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
-        <v>316</v>
+        <v>326</v>
       </c>
       <c r="B227" t="n">
-        <v>133</v>
+        <v>92</v>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>which vacant lot is within 1 mile of a freeway in hillsboro?</t>
+          <t>what is the kernel density of crime in surrey in the uk?</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>Hillsboro</t>
-        </is>
-      </c>
-      <c r="E227" t="inlineStr"/>
+          <t>Surrey</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
       <c r="F227" t="inlineStr"/>
-      <c r="G227" t="inlineStr">
-        <is>
-          <t>abandoned:*=*, highway=motorway</t>
-        </is>
-      </c>
+      <c r="G227" t="inlineStr"/>
       <c r="H227" t="inlineStr">
         <is>
           <t>done</t>
@@ -14948,19 +15008,11 @@
       </c>
       <c r="J227" t="inlineStr">
         <is>
-          <t>buffer</t>
-        </is>
-      </c>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>Overlay analysis</t>
-        </is>
-      </c>
-      <c r="L227" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Geostatistics  </t>
+        </is>
+      </c>
+      <c r="K227" t="inlineStr"/>
+      <c r="L227" t="inlineStr"/>
       <c r="M227" t="inlineStr"/>
       <c r="N227" t="inlineStr"/>
       <c r="O227" t="inlineStr"/>
@@ -14972,35 +15024,35 @@
       <c r="U227" t="inlineStr"/>
       <c r="V227" t="inlineStr">
         <is>
-          <t>data queries,buffer,overlay analysis,data queries</t>
+          <t xml:space="preserve">data queries,geostatistics  </t>
         </is>
       </c>
       <c r="W227" t="n">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
-        <v>317</v>
+        <v>332</v>
       </c>
       <c r="B228" t="n">
-        <v>133</v>
+        <v>86</v>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>which vacant lots are within 1 mile of a freeway in hillsboro?</t>
+          <t>tell me the euclidean distance from hospitals in oleander?</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>Hillsboro</t>
+          <t>Oleander</t>
         </is>
       </c>
       <c r="E228" t="inlineStr"/>
       <c r="F228" t="inlineStr"/>
       <c r="G228" t="inlineStr">
         <is>
-          <t>abandoned:*=*, highway=motorway</t>
+          <t>amenity=hospital</t>
         </is>
       </c>
       <c r="H228" t="inlineStr">
@@ -15015,19 +15067,11 @@
       </c>
       <c r="J228" t="inlineStr">
         <is>
-          <t>buffer</t>
-        </is>
-      </c>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>Overlay analysis</t>
-        </is>
-      </c>
-      <c r="L228" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Geostatistics  </t>
+        </is>
+      </c>
+      <c r="K228" t="inlineStr"/>
+      <c r="L228" t="inlineStr"/>
       <c r="M228" t="inlineStr"/>
       <c r="N228" t="inlineStr"/>
       <c r="O228" t="inlineStr"/>
@@ -15039,23 +15083,23 @@
       <c r="U228" t="inlineStr"/>
       <c r="V228" t="inlineStr">
         <is>
-          <t>data queries,buffer,overlay analysis,data queries</t>
+          <t xml:space="preserve">data queries,geostatistics  </t>
         </is>
       </c>
       <c r="W228" t="n">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
-        <v>321</v>
+        <v>334</v>
       </c>
       <c r="B229" t="n">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>which houses are for sale and within 1km of the parks in utrecht?</t>
+          <t>how much distance is there between utrecht's schools?</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
@@ -15067,7 +15111,7 @@
       <c r="F229" t="inlineStr"/>
       <c r="G229" t="inlineStr">
         <is>
-          <t>leisure=park, building=house</t>
+          <t>amenity=school</t>
         </is>
       </c>
       <c r="H229" t="inlineStr">
@@ -15082,19 +15126,11 @@
       </c>
       <c r="J229" t="inlineStr">
         <is>
-          <t>Buffer</t>
-        </is>
-      </c>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>Overlay analysis</t>
-        </is>
-      </c>
-      <c r="L229" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Geostatistics  </t>
+        </is>
+      </c>
+      <c r="K229" t="inlineStr"/>
+      <c r="L229" t="inlineStr"/>
       <c r="M229" t="inlineStr"/>
       <c r="N229" t="inlineStr"/>
       <c r="O229" t="inlineStr"/>
@@ -15106,23 +15142,23 @@
       <c r="U229" t="inlineStr"/>
       <c r="V229" t="inlineStr">
         <is>
-          <t>data queries,buffer,overlay analysis,data queries</t>
+          <t xml:space="preserve">data queries,geostatistics  </t>
         </is>
       </c>
       <c r="W229" t="n">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
-        <v>325</v>
+        <v>335</v>
       </c>
       <c r="B230" t="n">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>which houses are for sale and within 1 km of the nearest supermarket from my current location in utrecht?</t>
+          <t>how much distance is there between schools in utrecht?</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
@@ -15134,7 +15170,7 @@
       <c r="F230" t="inlineStr"/>
       <c r="G230" t="inlineStr">
         <is>
-          <t>shop=*, building=house</t>
+          <t>amenity=school</t>
         </is>
       </c>
       <c r="H230" t="inlineStr">
@@ -15144,29 +15180,17 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>network analysis</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
         <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>buffer</t>
-        </is>
-      </c>
-      <c r="L230" t="inlineStr">
-        <is>
-          <t>Overlay analysis</t>
-        </is>
-      </c>
-      <c r="M230" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Geostatistics  </t>
+        </is>
+      </c>
+      <c r="K230" t="inlineStr"/>
+      <c r="L230" t="inlineStr"/>
+      <c r="M230" t="inlineStr"/>
       <c r="N230" t="inlineStr"/>
       <c r="O230" t="inlineStr"/>
       <c r="P230" t="inlineStr"/>
@@ -15177,37 +15201,37 @@
       <c r="U230" t="inlineStr"/>
       <c r="V230" t="inlineStr">
         <is>
-          <t>network analysis,data queries,buffer,overlay analysis,data queries</t>
+          <t xml:space="preserve">data queries,geostatistics  </t>
         </is>
       </c>
       <c r="W230" t="n">
-        <v>22</v>
+        <v>32</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="B231" t="n">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>what's the median age for each census tract in tarrant county?</t>
+          <t>how much distance is there between schools in utrecht</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>Tarrant County</t>
-        </is>
-      </c>
-      <c r="E231" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Texas</t>
-        </is>
-      </c>
+          <t>Utrecht</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr"/>
       <c r="F231" t="inlineStr"/>
-      <c r="G231" t="inlineStr"/>
+      <c r="G231" t="inlineStr">
+        <is>
+          <t>amenity=school</t>
+        </is>
+      </c>
       <c r="H231" t="inlineStr">
         <is>
           <t>done</t>
@@ -15215,24 +15239,16 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>data editing</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
         <is>
-          <t>Overlay analysis</t>
-        </is>
-      </c>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>data editing</t>
-        </is>
-      </c>
-      <c r="L231" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Geostatistics  </t>
+        </is>
+      </c>
+      <c r="K231" t="inlineStr"/>
+      <c r="L231" t="inlineStr"/>
       <c r="M231" t="inlineStr"/>
       <c r="N231" t="inlineStr"/>
       <c r="O231" t="inlineStr"/>
@@ -15244,35 +15260,31 @@
       <c r="U231" t="inlineStr"/>
       <c r="V231" t="inlineStr">
         <is>
-          <t>data editing,overlay analysis,data editing,data queries</t>
+          <t xml:space="preserve">data queries,geostatistics  </t>
         </is>
       </c>
       <c r="W231" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
-        <v>328</v>
+        <v>338</v>
       </c>
       <c r="B232" t="n">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>what is the median age for each census tract in tarrant county?</t>
+          <t>tell me the euclidean distance to subway stations in amsterdam</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>Tarrant County</t>
-        </is>
-      </c>
-      <c r="E232" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Texas</t>
-        </is>
-      </c>
+          <t>Amsterdam</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr"/>
       <c r="F232" t="inlineStr"/>
       <c r="G232" t="inlineStr"/>
       <c r="H232" t="inlineStr">
@@ -15282,24 +15294,16 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>data editing</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
         <is>
-          <t>Overlay analysis</t>
-        </is>
-      </c>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>data editing</t>
-        </is>
-      </c>
-      <c r="L232" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Geostatistics  </t>
+        </is>
+      </c>
+      <c r="K232" t="inlineStr"/>
+      <c r="L232" t="inlineStr"/>
       <c r="M232" t="inlineStr"/>
       <c r="N232" t="inlineStr"/>
       <c r="O232" t="inlineStr"/>
@@ -15311,35 +15315,31 @@
       <c r="U232" t="inlineStr"/>
       <c r="V232" t="inlineStr">
         <is>
-          <t>data editing,overlay analysis,data editing,data queries</t>
+          <t xml:space="preserve">data queries,geostatistics  </t>
         </is>
       </c>
       <c r="W232" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="B233" t="n">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>what's the median household income for each census block in tarrant county?</t>
+          <t>what is the euclidean distance to the subway stations in amsterdam?</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>Tarrant County</t>
-        </is>
-      </c>
-      <c r="E233" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Texas</t>
-        </is>
-      </c>
+          <t>Amsterdam</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr"/>
       <c r="F233" t="inlineStr"/>
       <c r="G233" t="inlineStr"/>
       <c r="H233" t="inlineStr">
@@ -15349,24 +15349,16 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>data editing</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
         <is>
-          <t>Overlay analysis</t>
-        </is>
-      </c>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>data editing</t>
-        </is>
-      </c>
-      <c r="L233" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Geostatistics  </t>
+        </is>
+      </c>
+      <c r="K233" t="inlineStr"/>
+      <c r="L233" t="inlineStr"/>
       <c r="M233" t="inlineStr"/>
       <c r="N233" t="inlineStr"/>
       <c r="O233" t="inlineStr"/>
@@ -15378,33 +15370,33 @@
       <c r="U233" t="inlineStr"/>
       <c r="V233" t="inlineStr">
         <is>
-          <t>data editing,overlay analysis,data editing,data queries</t>
+          <t xml:space="preserve">data queries,geostatistics  </t>
         </is>
       </c>
       <c r="W233" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
-        <v>331</v>
+        <v>341</v>
       </c>
       <c r="B234" t="n">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>what is the median household income for each census block in tarrant county?</t>
+          <t>how many accidents occur in pasadena?</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>Tarrant County</t>
+          <t>Pasadena</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Texas</t>
+          <t>California</t>
         </is>
       </c>
       <c r="F234" t="inlineStr"/>
@@ -15416,24 +15408,16 @@
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>data editing</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
         <is>
-          <t>Overlay analysis</t>
-        </is>
-      </c>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>data editing</t>
-        </is>
-      </c>
-      <c r="L234" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Geostatistics  </t>
+        </is>
+      </c>
+      <c r="K234" t="inlineStr"/>
+      <c r="L234" t="inlineStr"/>
       <c r="M234" t="inlineStr"/>
       <c r="N234" t="inlineStr"/>
       <c r="O234" t="inlineStr"/>
@@ -15445,37 +15429,37 @@
       <c r="U234" t="inlineStr"/>
       <c r="V234" t="inlineStr">
         <is>
-          <t>data editing,overlay analysis,data editing,data queries</t>
+          <t xml:space="preserve">data queries,geostatistics  </t>
         </is>
       </c>
       <c r="W234" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="B235" t="n">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>tell me the euclidean distance from hospitals in oleander?</t>
+          <t>how many traffic accidents occur in pasadena?</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>Oleander</t>
-        </is>
-      </c>
-      <c r="E235" t="inlineStr"/>
+          <t>Pasadena</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>California</t>
+        </is>
+      </c>
       <c r="F235" t="inlineStr"/>
-      <c r="G235" t="inlineStr">
-        <is>
-          <t>amenity=hospital</t>
-        </is>
-      </c>
+      <c r="G235" t="inlineStr"/>
       <c r="H235" t="inlineStr">
         <is>
           <t>done</t>
@@ -15513,22 +15497,26 @@
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="B236" t="n">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>tell me the euclidean distance to the green areas in amsterdam?</t>
+          <t>tell me the kernel density of traffic accidents in pasadena?</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>Amsterdam</t>
-        </is>
-      </c>
-      <c r="E236" t="inlineStr"/>
+          <t>Pasadena</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>California</t>
+        </is>
+      </c>
       <c r="F236" t="inlineStr"/>
       <c r="G236" t="inlineStr"/>
       <c r="H236" t="inlineStr">
@@ -15568,24 +15556,28 @@
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="B237" t="n">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>tell me the euclidean distance to the green areas in amsterdam</t>
+          <t>how long does it take to reach recreational sites in utrecht?</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>Amsterdam</t>
+          <t>Utrecht</t>
         </is>
       </c>
       <c r="E237" t="inlineStr"/>
       <c r="F237" t="inlineStr"/>
-      <c r="G237" t="inlineStr"/>
+      <c r="G237" t="inlineStr">
+        <is>
+          <t>landuse=recreation_ground</t>
+        </is>
+      </c>
       <c r="H237" t="inlineStr">
         <is>
           <t>done</t>
@@ -15623,14 +15615,14 @@
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="B238" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>how much distance is there between utrecht's schools?</t>
+          <t>tell me the euclidean distance from recreational sites in utrecht?</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
@@ -15642,7 +15634,7 @@
       <c r="F238" t="inlineStr"/>
       <c r="G238" t="inlineStr">
         <is>
-          <t>amenity=school</t>
+          <t>landuse=recreation_ground</t>
         </is>
       </c>
       <c r="H238" t="inlineStr">
@@ -15682,28 +15674,24 @@
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="B239" t="n">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>how much distance is there between schools in utrecht?</t>
+          <t>tell me the euclidean distance to the green areas in amsterdam?</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>Utrecht</t>
+          <t>Amsterdam</t>
         </is>
       </c>
       <c r="E239" t="inlineStr"/>
       <c r="F239" t="inlineStr"/>
-      <c r="G239" t="inlineStr">
-        <is>
-          <t>amenity=school</t>
-        </is>
-      </c>
+      <c r="G239" t="inlineStr"/>
       <c r="H239" t="inlineStr">
         <is>
           <t>done</t>
@@ -15741,28 +15729,24 @@
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="B240" t="n">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>how much distance is there between schools in utrecht</t>
+          <t>tell me the euclidean distance to the green areas in amsterdam</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>Utrecht</t>
+          <t>Amsterdam</t>
         </is>
       </c>
       <c r="E240" t="inlineStr"/>
       <c r="F240" t="inlineStr"/>
-      <c r="G240" t="inlineStr">
-        <is>
-          <t>amenity=school</t>
-        </is>
-      </c>
+      <c r="G240" t="inlineStr"/>
       <c r="H240" t="inlineStr">
         <is>
           <t>done</t>
@@ -15798,407 +15782,6 @@
         <v>32</v>
       </c>
     </row>
-    <row r="241">
-      <c r="A241" s="1" t="n">
-        <v>345</v>
-      </c>
-      <c r="B241" t="n">
-        <v>92</v>
-      </c>
-      <c r="C241" t="inlineStr">
-        <is>
-          <t>what is the kernel density of crime in surrey in the uk?</t>
-        </is>
-      </c>
-      <c r="D241" t="inlineStr">
-        <is>
-          <t>Surrey</t>
-        </is>
-      </c>
-      <c r="E241" t="inlineStr">
-        <is>
-          <t>UK</t>
-        </is>
-      </c>
-      <c r="F241" t="inlineStr"/>
-      <c r="G241" t="inlineStr"/>
-      <c r="H241" t="inlineStr">
-        <is>
-          <t>done</t>
-        </is>
-      </c>
-      <c r="I241" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="J241" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Geostatistics  </t>
-        </is>
-      </c>
-      <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr"/>
-      <c r="M241" t="inlineStr"/>
-      <c r="N241" t="inlineStr"/>
-      <c r="O241" t="inlineStr"/>
-      <c r="P241" t="inlineStr"/>
-      <c r="Q241" t="inlineStr"/>
-      <c r="R241" t="inlineStr"/>
-      <c r="S241" t="inlineStr"/>
-      <c r="T241" t="inlineStr"/>
-      <c r="U241" t="inlineStr"/>
-      <c r="V241" t="inlineStr">
-        <is>
-          <t xml:space="preserve">data queries,geostatistics  </t>
-        </is>
-      </c>
-      <c r="W241" t="n">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="242">
-      <c r="A242" s="1" t="n">
-        <v>347</v>
-      </c>
-      <c r="B242" t="n">
-        <v>90</v>
-      </c>
-      <c r="C242" t="inlineStr">
-        <is>
-          <t>tell me the euclidean distance to the rivers in crook deschutes and jefferson counties?</t>
-        </is>
-      </c>
-      <c r="D242" t="inlineStr">
-        <is>
-          <t>Crook, Deschutes, Jefferson county</t>
-        </is>
-      </c>
-      <c r="E242" t="inlineStr"/>
-      <c r="F242" t="inlineStr"/>
-      <c r="G242" t="inlineStr"/>
-      <c r="H242" t="inlineStr">
-        <is>
-          <t>done</t>
-        </is>
-      </c>
-      <c r="I242" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="J242" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Geostatistics  </t>
-        </is>
-      </c>
-      <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr"/>
-      <c r="M242" t="inlineStr"/>
-      <c r="N242" t="inlineStr"/>
-      <c r="O242" t="inlineStr"/>
-      <c r="P242" t="inlineStr"/>
-      <c r="Q242" t="inlineStr"/>
-      <c r="R242" t="inlineStr"/>
-      <c r="S242" t="inlineStr"/>
-      <c r="T242" t="inlineStr"/>
-      <c r="U242" t="inlineStr"/>
-      <c r="V242" t="inlineStr">
-        <is>
-          <t xml:space="preserve">data queries,geostatistics  </t>
-        </is>
-      </c>
-      <c r="W242" t="n">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="243">
-      <c r="A243" s="1" t="n">
-        <v>348</v>
-      </c>
-      <c r="B243" t="n">
-        <v>90</v>
-      </c>
-      <c r="C243" t="inlineStr">
-        <is>
-          <t>tell me the euclidean distance to the rivers in crook deschutes and jefferson county</t>
-        </is>
-      </c>
-      <c r="D243" t="inlineStr">
-        <is>
-          <t>Crook, Deschutes, Jefferson county</t>
-        </is>
-      </c>
-      <c r="E243" t="inlineStr"/>
-      <c r="F243" t="inlineStr"/>
-      <c r="G243" t="inlineStr"/>
-      <c r="H243" t="inlineStr">
-        <is>
-          <t>done</t>
-        </is>
-      </c>
-      <c r="I243" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="J243" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Geostatistics  </t>
-        </is>
-      </c>
-      <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr"/>
-      <c r="M243" t="inlineStr"/>
-      <c r="N243" t="inlineStr"/>
-      <c r="O243" t="inlineStr"/>
-      <c r="P243" t="inlineStr"/>
-      <c r="Q243" t="inlineStr"/>
-      <c r="R243" t="inlineStr"/>
-      <c r="S243" t="inlineStr"/>
-      <c r="T243" t="inlineStr"/>
-      <c r="U243" t="inlineStr"/>
-      <c r="V243" t="inlineStr">
-        <is>
-          <t xml:space="preserve">data queries,geostatistics  </t>
-        </is>
-      </c>
-      <c r="W243" t="n">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" s="1" t="n">
-        <v>349</v>
-      </c>
-      <c r="B244" t="n">
-        <v>90</v>
-      </c>
-      <c r="C244" t="inlineStr">
-        <is>
-          <t>what is the euclidean distance to the rivers in crook deschutes and jefferson county?</t>
-        </is>
-      </c>
-      <c r="D244" t="inlineStr">
-        <is>
-          <t>Crook, Deschutes, Jefferson county</t>
-        </is>
-      </c>
-      <c r="E244" t="inlineStr"/>
-      <c r="F244" t="inlineStr"/>
-      <c r="G244" t="inlineStr"/>
-      <c r="H244" t="inlineStr">
-        <is>
-          <t>done</t>
-        </is>
-      </c>
-      <c r="I244" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="J244" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Geostatistics  </t>
-        </is>
-      </c>
-      <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr"/>
-      <c r="M244" t="inlineStr"/>
-      <c r="N244" t="inlineStr"/>
-      <c r="O244" t="inlineStr"/>
-      <c r="P244" t="inlineStr"/>
-      <c r="Q244" t="inlineStr"/>
-      <c r="R244" t="inlineStr"/>
-      <c r="S244" t="inlineStr"/>
-      <c r="T244" t="inlineStr"/>
-      <c r="U244" t="inlineStr"/>
-      <c r="V244" t="inlineStr">
-        <is>
-          <t xml:space="preserve">data queries,geostatistics  </t>
-        </is>
-      </c>
-      <c r="W244" t="n">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="245">
-      <c r="A245" s="1" t="n">
-        <v>351</v>
-      </c>
-      <c r="B245" t="n">
-        <v>93</v>
-      </c>
-      <c r="C245" t="inlineStr">
-        <is>
-          <t>how many accidents occur in pasadena?</t>
-        </is>
-      </c>
-      <c r="D245" t="inlineStr">
-        <is>
-          <t>Pasadena</t>
-        </is>
-      </c>
-      <c r="E245" t="inlineStr">
-        <is>
-          <t>California</t>
-        </is>
-      </c>
-      <c r="F245" t="inlineStr"/>
-      <c r="G245" t="inlineStr"/>
-      <c r="H245" t="inlineStr">
-        <is>
-          <t>done</t>
-        </is>
-      </c>
-      <c r="I245" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="J245" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Geostatistics  </t>
-        </is>
-      </c>
-      <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr"/>
-      <c r="M245" t="inlineStr"/>
-      <c r="N245" t="inlineStr"/>
-      <c r="O245" t="inlineStr"/>
-      <c r="P245" t="inlineStr"/>
-      <c r="Q245" t="inlineStr"/>
-      <c r="R245" t="inlineStr"/>
-      <c r="S245" t="inlineStr"/>
-      <c r="T245" t="inlineStr"/>
-      <c r="U245" t="inlineStr"/>
-      <c r="V245" t="inlineStr">
-        <is>
-          <t xml:space="preserve">data queries,geostatistics  </t>
-        </is>
-      </c>
-      <c r="W245" t="n">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="246">
-      <c r="A246" s="1" t="n">
-        <v>352</v>
-      </c>
-      <c r="B246" t="n">
-        <v>93</v>
-      </c>
-      <c r="C246" t="inlineStr">
-        <is>
-          <t>how many traffic accidents occur in pasadena?</t>
-        </is>
-      </c>
-      <c r="D246" t="inlineStr">
-        <is>
-          <t>Pasadena</t>
-        </is>
-      </c>
-      <c r="E246" t="inlineStr">
-        <is>
-          <t>California</t>
-        </is>
-      </c>
-      <c r="F246" t="inlineStr"/>
-      <c r="G246" t="inlineStr"/>
-      <c r="H246" t="inlineStr">
-        <is>
-          <t>done</t>
-        </is>
-      </c>
-      <c r="I246" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="J246" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Geostatistics  </t>
-        </is>
-      </c>
-      <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr"/>
-      <c r="M246" t="inlineStr"/>
-      <c r="N246" t="inlineStr"/>
-      <c r="O246" t="inlineStr"/>
-      <c r="P246" t="inlineStr"/>
-      <c r="Q246" t="inlineStr"/>
-      <c r="R246" t="inlineStr"/>
-      <c r="S246" t="inlineStr"/>
-      <c r="T246" t="inlineStr"/>
-      <c r="U246" t="inlineStr"/>
-      <c r="V246" t="inlineStr">
-        <is>
-          <t xml:space="preserve">data queries,geostatistics  </t>
-        </is>
-      </c>
-      <c r="W246" t="n">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="247">
-      <c r="A247" s="1" t="n">
-        <v>353</v>
-      </c>
-      <c r="B247" t="n">
-        <v>93</v>
-      </c>
-      <c r="C247" t="inlineStr">
-        <is>
-          <t>tell me the kernel density of traffic accidents in pasadena?</t>
-        </is>
-      </c>
-      <c r="D247" t="inlineStr">
-        <is>
-          <t>Pasadena</t>
-        </is>
-      </c>
-      <c r="E247" t="inlineStr">
-        <is>
-          <t>California</t>
-        </is>
-      </c>
-      <c r="F247" t="inlineStr"/>
-      <c r="G247" t="inlineStr"/>
-      <c r="H247" t="inlineStr">
-        <is>
-          <t>done</t>
-        </is>
-      </c>
-      <c r="I247" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="J247" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Geostatistics  </t>
-        </is>
-      </c>
-      <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr"/>
-      <c r="M247" t="inlineStr"/>
-      <c r="N247" t="inlineStr"/>
-      <c r="O247" t="inlineStr"/>
-      <c r="P247" t="inlineStr"/>
-      <c r="Q247" t="inlineStr"/>
-      <c r="R247" t="inlineStr"/>
-      <c r="S247" t="inlineStr"/>
-      <c r="T247" t="inlineStr"/>
-      <c r="U247" t="inlineStr"/>
-      <c r="V247" t="inlineStr">
-        <is>
-          <t xml:space="preserve">data queries,geostatistics  </t>
-        </is>
-      </c>
-      <c r="W247" t="n">
-        <v>32</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
